--- a/calibration/doc/ScaleCalibration.xlsx
+++ b/calibration/doc/ScaleCalibration.xlsx
@@ -474,7 +474,7 @@
   <dimension ref="B1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,10 +540,10 @@
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2">
         <f t="shared" ref="B2:B41" si="0">C2+D2</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -560,16 +560,17 @@
       </c>
       <c r="I2">
         <f>B2</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <f>C2</f>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -586,15 +587,15 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I9" si="2">I2+B3</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K9" si="3">(G3*I2-I3*G2)/(H2*G3-H3*G2)</f>
-        <v>0</v>
+        <v>1.0000000000000133</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L9" si="4">G3/(I3-K3*H3)</f>
-        <v>0.1</v>
+        <v>0.10000000000000014</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N9" si="5">(B3-K3)*L3</f>
@@ -602,19 +603,19 @@
       </c>
       <c r="O3">
         <f>K3</f>
-        <v>0</v>
+        <v>1.0000000000000133</v>
       </c>
       <c r="P3" s="2">
         <f>O3</f>
-        <v>0</v>
+        <v>1.0000000000000133</v>
       </c>
       <c r="Q3">
         <f>L3</f>
-        <v>0.1</v>
+        <v>0.10000000000000014</v>
       </c>
       <c r="R3" s="2">
         <f>Q3</f>
-        <v>0.1</v>
+        <v>0.10000000000000014</v>
       </c>
       <c r="S3" s="3">
         <f>(B3-K3)*R3</f>
@@ -624,10 +625,11 @@
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <f t="shared" ref="C4:C41" si="6">C3</f>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -644,48 +646,49 @@
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.99999999999994671</v>
       </c>
       <c r="L4">
         <f t="shared" si="4"/>
-        <v>9.9999999999999992E-2</v>
+        <v>9.999999999999952E-2</v>
       </c>
       <c r="N4">
         <f t="shared" si="5"/>
-        <v>1.2</v>
+        <v>1.1999999999999995</v>
       </c>
       <c r="O4">
         <f>O3+K4</f>
-        <v>0</v>
+        <v>1.99999999999996</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" ref="P4:P29" si="6">O4/(H4-1)</f>
-        <v>0</v>
+        <f t="shared" ref="P4:P29" si="7">O4/(H4-1)</f>
+        <v>0.99999999999998002</v>
       </c>
       <c r="Q4">
         <f>Q3+L4</f>
-        <v>0.2</v>
+        <v>0.19999999999999968</v>
       </c>
       <c r="R4" s="2">
         <f>Q4/(H4-1)</f>
-        <v>0.1</v>
+        <v>9.9999999999999839E-2</v>
       </c>
       <c r="S4" s="3">
         <f>(B4-K4)*R4</f>
-        <v>1.2000000000000002</v>
+        <v>1.2000000000000033</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>13</v>
@@ -702,48 +705,49 @@
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.99999999999999112</v>
       </c>
       <c r="L5">
         <f t="shared" si="4"/>
-        <v>9.9999999999999992E-2</v>
+        <v>9.9999999999999908E-2</v>
       </c>
       <c r="N5">
         <f t="shared" si="5"/>
-        <v>1.2999999999999998</v>
+        <v>1.2999999999999996</v>
       </c>
       <c r="O5">
         <f>O4+K5</f>
-        <v>0</v>
+        <v>2.9999999999999512</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.99999999999998368</v>
       </c>
       <c r="Q5">
         <f>Q4+L5</f>
-        <v>0.3</v>
+        <v>0.2999999999999996</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" ref="R5:R29" si="7">Q5/(H5-1)</f>
-        <v>9.9999999999999992E-2</v>
+        <f t="shared" ref="R5:R29" si="8">Q5/(H5-1)</f>
+        <v>9.9999999999999867E-2</v>
       </c>
       <c r="S5" s="3">
         <f>(B5-K5)*R5</f>
-        <v>1.2999999999999998</v>
+        <v>1.2999999999999992</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>13.5</v>
@@ -760,48 +764,49 @@
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>59.5</v>
+        <v>64.5</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.99999999999994671</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>9.9999999999999992E-2</v>
+        <v>9.9999999999999534E-2</v>
       </c>
       <c r="N6">
         <f t="shared" si="5"/>
-        <v>1.3499999999999999</v>
+        <v>1.349999999999999</v>
       </c>
       <c r="O6">
         <f>O5+K6</f>
-        <v>0</v>
+        <v>3.9999999999998979</v>
       </c>
       <c r="P6">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.99999999999997446</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q29" si="8">Q5+L6</f>
-        <v>0.39999999999999997</v>
+        <f t="shared" ref="Q6:Q29" si="9">Q5+L6</f>
+        <v>0.39999999999999913</v>
       </c>
       <c r="R6">
-        <f t="shared" si="7"/>
-        <v>9.9999999999999992E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.9999999999999784E-2</v>
       </c>
       <c r="S6">
         <f>(B6-K6)*R6</f>
-        <v>1.3499999999999999</v>
+        <v>1.3500000000000023</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -818,15 +823,15 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>71.5</v>
+        <v>77.5</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.0000000000001421</v>
       </c>
       <c r="L7">
         <f t="shared" si="4"/>
-        <v>9.9999999999999992E-2</v>
+        <v>0.10000000000000119</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -834,32 +839,33 @@
       </c>
       <c r="O7">
         <f>O6+K7</f>
-        <v>0</v>
+        <v>5.00000000000004</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.000000000000008</v>
       </c>
       <c r="Q7">
+        <f t="shared" si="9"/>
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>0.49999999999999994</v>
-      </c>
-      <c r="R7" s="2">
-        <f t="shared" si="7"/>
-        <v>9.9999999999999992E-2</v>
+        <v>0.10000000000000006</v>
       </c>
       <c r="S7" s="3">
-        <f t="shared" ref="S7:S29" si="9">(B7-K7)*R7</f>
-        <v>1.2</v>
+        <f t="shared" ref="S7:S29" si="10">(B7-K7)*R7</f>
+        <v>1.1999999999999864</v>
       </c>
     </row>
     <row r="8" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
+        <v>13.5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>12.5</v>
@@ -876,48 +882,49 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.99999999999975642</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="4"/>
-        <v>9.9999999999999978E-2</v>
+        <v>9.9999999999997952E-2</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="5"/>
-        <v>1.2499999999999998</v>
+        <v>1.2499999999999987</v>
       </c>
       <c r="O8" s="1">
         <f>O7+K8</f>
-        <v>0</v>
+        <v>5.9999999999997966</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.99999999999996614</v>
       </c>
       <c r="Q8" s="1">
+        <f t="shared" si="9"/>
+        <v>0.59999999999999831</v>
+      </c>
+      <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>0.59999999999999987</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="7"/>
-        <v>9.9999999999999978E-2</v>
+        <v>9.9999999999999714E-2</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2499999999999998</v>
+        <f t="shared" si="10"/>
+        <v>1.2500000000000209</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>12.6</v>
+        <v>13.6</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>12.6</v>
@@ -934,48 +941,49 @@
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>96.6</v>
+        <v>104.6</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.0000000000001692</v>
       </c>
       <c r="L9">
         <f t="shared" si="4"/>
-        <v>9.9999999999999992E-2</v>
+        <v>0.10000000000000139</v>
       </c>
       <c r="N9">
         <f t="shared" si="5"/>
-        <v>1.2599999999999998</v>
+        <v>1.2600000000000007</v>
       </c>
       <c r="O9">
-        <f t="shared" ref="O9:O29" si="10">O8+K9</f>
-        <v>0</v>
+        <f t="shared" ref="O9:O29" si="11">O8+K9</f>
+        <v>6.9999999999999662</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.99999999999999523</v>
       </c>
       <c r="Q9">
+        <f t="shared" si="9"/>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="R9" s="2">
         <f t="shared" si="8"/>
-        <v>0.69999999999999984</v>
-      </c>
-      <c r="R9" s="2">
-        <f t="shared" si="7"/>
-        <v>9.9999999999999978E-2</v>
+        <v>9.9999999999999964E-2</v>
       </c>
       <c r="S9" s="3">
-        <f t="shared" si="9"/>
-        <v>1.2599999999999998</v>
+        <f t="shared" si="10"/>
+        <v>1.2599999999999827</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -992,49 +1000,50 @@
         <v>9</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:I41" si="11">I9+B10</f>
-        <v>109.6</v>
+        <f t="shared" ref="I10:I41" si="12">I9+B10</f>
+        <v>118.6</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10:K29" si="12">(G10*I9-I10*G9)/(H9*G10-H10*G9)</f>
-        <v>0</v>
+        <f t="shared" ref="K10:K29" si="13">(G10*I9-I10*G9)/(H9*G10-H10*G9)</f>
+        <v>1.0000000000003073</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10:L29" si="13">G10/(I10-K10*H10)</f>
-        <v>9.9999999999999992E-2</v>
+        <f t="shared" ref="L10:L29" si="14">G10/(I10-K10*H10)</f>
+        <v>0.10000000000000253</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:N29" si="14">(B10-K10)*L10</f>
-        <v>1.2999999999999998</v>
+        <f t="shared" ref="N10:N29" si="15">(B10-K10)*L10</f>
+        <v>1.3000000000000023</v>
       </c>
       <c r="O10">
+        <f t="shared" si="11"/>
+        <v>8.0000000000002736</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000342</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="9"/>
+        <v>0.80000000000000226</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10000000000000028</v>
+      </c>
+      <c r="S10" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="8"/>
-        <v>0.79999999999999982</v>
-      </c>
-      <c r="R10" s="2">
-        <f t="shared" si="7"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="S10" s="3">
-        <f t="shared" si="9"/>
-        <v>1.2999999999999998</v>
+        <v>1.299999999999973</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>13.1</v>
+        <v>14.1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>13.1</v>
@@ -1047,53 +1056,54 @@
         <v>12.27</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H41" si="15">H10+1</f>
+        <f t="shared" ref="H11:H41" si="16">H10+1</f>
         <v>10</v>
       </c>
       <c r="I11">
+        <f t="shared" si="12"/>
+        <v>132.69999999999999</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="13"/>
+        <v>1.0000000000001883</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="14"/>
+        <v>0.10000000000000153</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="15"/>
+        <v>1.3100000000000012</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="11"/>
-        <v>122.69999999999999</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="12"/>
-        <v>2.7394418728100306E-13</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="13"/>
-        <v>0.10000000000000224</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="14"/>
-        <v>1.3100000000000021</v>
-      </c>
-      <c r="O11">
+        <v>9.0000000000004619</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000513</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="9"/>
+        <v>0.9000000000000038</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10000000000000042</v>
+      </c>
+      <c r="S11" s="3">
         <f t="shared" si="10"/>
-        <v>2.7394418728100306E-13</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="6"/>
-        <v>3.0438243031222561E-14</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="8"/>
-        <v>0.90000000000000202</v>
-      </c>
-      <c r="R11" s="2">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000023</v>
-      </c>
-      <c r="S11" s="3">
-        <f t="shared" si="9"/>
-        <v>1.3099999999999756</v>
+        <v>1.3099999999999867</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>13</v>
@@ -1106,53 +1116,54 @@
         <v>13.57</v>
       </c>
       <c r="H12">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="12"/>
+        <v>146.69999999999999</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000389</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="14"/>
+        <v>0.10000000000000032</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="15"/>
-        <v>11</v>
-      </c>
-      <c r="I12">
+        <v>1.3000000000000003</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="11"/>
-        <v>135.69999999999999</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="12"/>
-        <v>3.1147078827840446E-13</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="13"/>
-        <v>0.10000000000000255</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="14"/>
-        <v>1.300000000000002</v>
-      </c>
-      <c r="O12">
+        <v>10.000000000000501</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000502</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="9"/>
+        <v>1.0000000000000042</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10000000000000042</v>
+      </c>
+      <c r="S12" s="3">
         <f t="shared" si="10"/>
-        <v>5.8541497555940752E-13</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" si="6"/>
-        <v>5.8541497555940747E-14</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="8"/>
-        <v>1.0000000000000047</v>
-      </c>
-      <c r="R12" s="2">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000046</v>
-      </c>
-      <c r="S12" s="3">
-        <f t="shared" si="9"/>
-        <v>1.299999999999975</v>
+        <v>1.3000000000000016</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>14</v>
@@ -1165,53 +1176,54 @@
         <v>14.97</v>
       </c>
       <c r="H13">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="12"/>
+        <v>161.69999999999999</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="13"/>
+        <v>0.99999999999995337</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="14"/>
+        <v>9.9999999999999631E-2</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="I13">
+        <v>1.3999999999999995</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="11"/>
-        <v>149.69999999999999</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="13"/>
-        <v>0.1</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="14"/>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="O13">
+        <v>11.000000000000455</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000413</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="9"/>
+        <v>1.1000000000000039</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10000000000000035</v>
+      </c>
+      <c r="S13" s="3">
         <f t="shared" si="10"/>
-        <v>5.8541497555940752E-13</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="6"/>
-        <v>5.3219543232673413E-14</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="8"/>
-        <v>1.1000000000000048</v>
-      </c>
-      <c r="R13" s="2">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000044</v>
-      </c>
-      <c r="S13" s="3">
-        <f t="shared" si="9"/>
-        <v>1.4000000000000061</v>
+        <v>1.4000000000000095</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>15</v>
@@ -1224,53 +1236,54 @@
         <v>16.47</v>
       </c>
       <c r="H14">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="12"/>
+        <v>177.7</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="13"/>
+        <v>0.99999999999992495</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="14"/>
+        <v>9.9999999999999409E-2</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="15"/>
-        <v>13</v>
-      </c>
-      <c r="I14">
+        <v>1.4999999999999987</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="11"/>
-        <v>164.7</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="13"/>
-        <v>0.1</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="14"/>
-        <v>1.5</v>
-      </c>
-      <c r="O14">
+        <v>12.00000000000038</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000318</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="9"/>
+        <v>1.2000000000000033</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10000000000000027</v>
+      </c>
+      <c r="S14" s="3">
         <f t="shared" si="10"/>
-        <v>5.8541497555940752E-13</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" si="6"/>
-        <v>4.8784581296617295E-14</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="8"/>
-        <v>1.2000000000000048</v>
-      </c>
-      <c r="R14" s="2">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000041</v>
-      </c>
-      <c r="S14" s="3">
-        <f t="shared" si="9"/>
-        <v>1.5000000000000062</v>
+        <v>1.5000000000000115</v>
       </c>
     </row>
     <row r="15" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <v>15</v>
@@ -1283,53 +1296,54 @@
         <v>17.97</v>
       </c>
       <c r="H15" s="1">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="12"/>
+        <v>193.7</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000657</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="14"/>
+        <v>0.10000000000000051</v>
+      </c>
+      <c r="N15" s="1">
         <f t="shared" si="15"/>
-        <v>14</v>
-      </c>
-      <c r="I15" s="1">
+        <v>1.5000000000000011</v>
+      </c>
+      <c r="O15" s="1">
         <f t="shared" si="11"/>
-        <v>179.7</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="13"/>
-        <v>0.1</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="14"/>
-        <v>1.5</v>
-      </c>
-      <c r="O15" s="1">
+        <v>13.000000000000446</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000342</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="9"/>
+        <v>1.3000000000000038</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="8"/>
+        <v>0.1000000000000003</v>
+      </c>
+      <c r="S15" s="1">
         <f t="shared" si="10"/>
-        <v>5.8541497555940752E-13</v>
-      </c>
-      <c r="P15" s="1">
-        <f t="shared" si="6"/>
-        <v>4.5031921196877499E-14</v>
-      </c>
-      <c r="Q15" s="1">
-        <f t="shared" si="8"/>
-        <v>1.3000000000000049</v>
-      </c>
-      <c r="R15" s="1">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000038</v>
-      </c>
-      <c r="S15" s="1">
-        <f t="shared" si="9"/>
-        <v>1.5000000000000058</v>
+        <v>1.4999999999999978</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1342,53 +1356,54 @@
         <v>19.47</v>
       </c>
       <c r="H16">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="12"/>
+        <v>209.7</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="13"/>
+        <v>0.99999999999990619</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="14"/>
+        <v>9.999999999999927E-2</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="15"/>
-        <v>15</v>
-      </c>
-      <c r="I16">
+        <v>1.4999999999999984</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="11"/>
-        <v>194.7</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="13"/>
-        <v>0.1</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="14"/>
-        <v>1.5</v>
-      </c>
-      <c r="O16">
+        <v>14.000000000000352</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000251</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="9"/>
+        <v>1.400000000000003</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10000000000000021</v>
+      </c>
+      <c r="S16" s="3">
         <f t="shared" si="10"/>
-        <v>5.8541497555940752E-13</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" si="6"/>
-        <v>4.1815355397100534E-14</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="8"/>
-        <v>1.400000000000005</v>
-      </c>
-      <c r="R16" s="2">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000035</v>
-      </c>
-      <c r="S16" s="3">
-        <f t="shared" si="9"/>
-        <v>1.5000000000000053</v>
+        <v>1.5000000000000127</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -1401,53 +1416,54 @@
         <v>21.07</v>
       </c>
       <c r="H17">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="12"/>
+        <v>226.7</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="13"/>
+        <v>1.0000000000001381</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="14"/>
+        <v>0.10000000000000106</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="15"/>
-        <v>16</v>
-      </c>
-      <c r="I17">
+        <v>1.6000000000000032</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="11"/>
-        <v>210.7</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="13"/>
-        <v>0.1</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="14"/>
-        <v>1.6</v>
-      </c>
-      <c r="O17">
+        <v>15.00000000000049</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000326</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="9"/>
+        <v>1.500000000000004</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10000000000000027</v>
+      </c>
+      <c r="S17" s="3">
         <f t="shared" si="10"/>
-        <v>5.8541497555940752E-13</v>
-      </c>
-      <c r="P17" s="2">
-        <f t="shared" si="6"/>
-        <v>3.9027665037293837E-14</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="8"/>
-        <v>1.5000000000000051</v>
-      </c>
-      <c r="R17" s="2">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000034</v>
-      </c>
-      <c r="S17" s="3">
-        <f t="shared" si="9"/>
-        <v>1.6000000000000054</v>
+        <v>1.5999999999999905</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -1460,53 +1476,54 @@
         <v>22.77</v>
       </c>
       <c r="H18">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="12"/>
+        <v>244.7</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000187</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="14"/>
+        <v>0.10000000000000014</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="15"/>
-        <v>17</v>
-      </c>
-      <c r="I18">
+        <v>1.7000000000000006</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="11"/>
-        <v>227.7</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="12"/>
-        <v>-1.4836781431858546E-13</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="13"/>
-        <v>9.9999999999998895E-2</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="14"/>
-        <v>1.6999999999999962</v>
-      </c>
-      <c r="O18">
+        <v>16.000000000000508</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000318</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="9"/>
+        <v>1.6000000000000041</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10000000000000026</v>
+      </c>
+      <c r="S18" s="3">
         <f t="shared" si="10"/>
-        <v>4.3704716124082206E-13</v>
-      </c>
-      <c r="P18" s="2">
-        <f t="shared" si="6"/>
-        <v>2.7315447577551379E-14</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="8"/>
-        <v>1.6000000000000041</v>
-      </c>
-      <c r="R18" s="2">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000026</v>
-      </c>
-      <c r="S18" s="3">
-        <f t="shared" si="9"/>
-        <v>1.7000000000000193</v>
+        <v>1.7000000000000026</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -1519,53 +1536,54 @@
         <v>24.57</v>
       </c>
       <c r="H19">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="12"/>
+        <v>263.7</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="13"/>
+        <v>0.99999999999999278</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="14"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="15"/>
-        <v>18</v>
-      </c>
-      <c r="I19">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="11"/>
-        <v>245.7</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="13"/>
-        <v>0.1</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="14"/>
-        <v>1.8</v>
-      </c>
-      <c r="O19">
+        <v>17.000000000000501</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000295</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="9"/>
+        <v>1.700000000000004</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10000000000000023</v>
+      </c>
+      <c r="S19" s="3">
         <f t="shared" si="10"/>
-        <v>4.3704716124082206E-13</v>
-      </c>
-      <c r="P19" s="2">
-        <f t="shared" si="6"/>
-        <v>2.5708656543577769E-14</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="8"/>
-        <v>1.7000000000000042</v>
-      </c>
-      <c r="R19" s="2">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000024</v>
-      </c>
-      <c r="S19" s="3">
-        <f t="shared" si="9"/>
-        <v>1.8000000000000043</v>
+        <v>1.8000000000000047</v>
       </c>
     </row>
     <row r="20" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
         <v>19</v>
@@ -1578,53 +1596,54 @@
         <v>26.47</v>
       </c>
       <c r="H20" s="1">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="12"/>
+        <v>283.7</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="13"/>
+        <v>0.9999999999999174</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="14"/>
+        <v>9.9999999999999395E-2</v>
+      </c>
+      <c r="N20" s="1">
         <f t="shared" si="15"/>
-        <v>19</v>
-      </c>
-      <c r="I20" s="1">
+        <v>1.8999999999999966</v>
+      </c>
+      <c r="O20" s="1">
         <f t="shared" si="11"/>
-        <v>264.7</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="12"/>
-        <v>-9.4443894265101622E-14</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" si="13"/>
-        <v>9.9999999999999312E-2</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="14"/>
-        <v>1.8999999999999966</v>
-      </c>
-      <c r="O20" s="1">
+        <v>18.000000000000419</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000233</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="9"/>
+        <v>1.8000000000000034</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="8"/>
+        <v>0.10000000000000019</v>
+      </c>
+      <c r="S20" s="1">
         <f t="shared" si="10"/>
-        <v>3.4260326697572045E-13</v>
-      </c>
-      <c r="P20" s="1">
-        <f t="shared" si="6"/>
-        <v>1.903351483198447E-14</v>
-      </c>
-      <c r="Q20" s="1">
-        <f t="shared" si="8"/>
-        <v>1.8000000000000034</v>
-      </c>
-      <c r="R20" s="1">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000019</v>
-      </c>
-      <c r="S20" s="1">
-        <f t="shared" si="9"/>
-        <v>1.9000000000000132</v>
+        <v>1.9000000000000117</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>17</v>
@@ -1637,53 +1656,54 @@
         <v>28.169999999999998</v>
       </c>
       <c r="H21">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="12"/>
+        <v>301.7</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="13"/>
+        <v>0.99999999999982447</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="14"/>
+        <v>9.9999999999998743E-2</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="15"/>
-        <v>20</v>
-      </c>
-      <c r="I21">
+        <v>1.699999999999996</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="11"/>
-        <v>281.7</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="13"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="14"/>
-        <v>1.7</v>
-      </c>
-      <c r="O21">
+        <v>19.000000000000245</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000129</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="9"/>
+        <v>1.9000000000000021</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10000000000000012</v>
+      </c>
+      <c r="S21" s="3">
         <f t="shared" si="10"/>
-        <v>3.4260326697572045E-13</v>
-      </c>
-      <c r="P21" s="2">
-        <f t="shared" si="6"/>
-        <v>1.8031750893458971E-14</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="8"/>
-        <v>1.9000000000000035</v>
-      </c>
-      <c r="R21" s="2">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000019</v>
-      </c>
-      <c r="S21" s="3">
-        <f t="shared" si="9"/>
-        <v>1.7000000000000031</v>
+        <v>1.7000000000000195</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>18</v>
@@ -1696,53 +1716,54 @@
         <v>29.97</v>
       </c>
       <c r="H22">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="12"/>
+        <v>320.7</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="13"/>
+        <v>0.99999999999998546</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="14"/>
+        <v>9.9999999999999908E-2</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="15"/>
-        <v>21</v>
-      </c>
-      <c r="I22">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="11"/>
-        <v>299.7</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="13"/>
-        <v>0.1</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="14"/>
-        <v>1.8</v>
-      </c>
-      <c r="O22">
+        <v>20.000000000000231</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000115</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="9"/>
+        <v>2.0000000000000022</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10000000000000012</v>
+      </c>
+      <c r="S22" s="3">
         <f t="shared" si="10"/>
-        <v>3.4260326697572045E-13</v>
-      </c>
-      <c r="P22" s="2">
-        <f t="shared" si="6"/>
-        <v>1.7130163348786021E-14</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="8"/>
-        <v>2.0000000000000036</v>
-      </c>
-      <c r="R22" s="2">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000017</v>
-      </c>
-      <c r="S22" s="3">
-        <f t="shared" si="9"/>
-        <v>1.8000000000000032</v>
+        <v>1.8000000000000036</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>17</v>
@@ -1755,53 +1776,54 @@
         <v>31.669999999999998</v>
       </c>
       <c r="H23">
+        <f t="shared" si="16"/>
+        <v>22</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="12"/>
+        <v>338.7</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="13"/>
+        <v>0.99999999999992062</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="14"/>
+        <v>9.9999999999999437E-2</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="15"/>
-        <v>22</v>
-      </c>
-      <c r="I23">
+        <v>1.6999999999999982</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="11"/>
-        <v>316.7</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="13"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="14"/>
-        <v>1.7</v>
-      </c>
-      <c r="O23">
+        <v>21.000000000000153</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000073</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="9"/>
+        <v>2.1000000000000019</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="S23" s="3">
         <f t="shared" si="10"/>
-        <v>3.4260326697572045E-13</v>
-      </c>
-      <c r="P23" s="2">
-        <f t="shared" si="6"/>
-        <v>1.6314441284558118E-14</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="8"/>
-        <v>2.1000000000000036</v>
-      </c>
-      <c r="R23" s="2">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000017</v>
-      </c>
-      <c r="S23" s="3">
-        <f t="shared" si="9"/>
-        <v>1.7000000000000028</v>
+        <v>1.7000000000000093</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>19</v>
@@ -1814,53 +1836,54 @@
         <v>33.57</v>
       </c>
       <c r="H24">
+        <f t="shared" si="16"/>
+        <v>23</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="12"/>
+        <v>358.7</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="13"/>
+        <v>1.000000000000101</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="14"/>
+        <v>0.1000000000000007</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="15"/>
-        <v>23</v>
-      </c>
-      <c r="I24">
+        <v>1.9000000000000032</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="11"/>
-        <v>335.7</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="12"/>
-        <v>1.7956460054746863E-13</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="13"/>
-        <v>0.10000000000000124</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="14"/>
-        <v>1.9000000000000055</v>
-      </c>
-      <c r="O24">
+        <v>22.000000000000252</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000115</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="9"/>
+        <v>2.2000000000000024</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="S24" s="3">
         <f t="shared" si="10"/>
-        <v>5.2216786752318913E-13</v>
-      </c>
-      <c r="P24" s="2">
-        <f t="shared" si="6"/>
-        <v>2.3734903069235871E-14</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="8"/>
-        <v>2.2000000000000051</v>
-      </c>
-      <c r="R24" s="2">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000023</v>
-      </c>
-      <c r="S24" s="3">
-        <f t="shared" si="9"/>
-        <v>1.8999999999999861</v>
+        <v>1.8999999999999919</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>17</v>
@@ -1873,53 +1896,54 @@
         <v>35.270000000000003</v>
       </c>
       <c r="H25">
+        <f t="shared" si="16"/>
+        <v>24</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="12"/>
+        <v>376.7</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="13"/>
+        <v>1.0000000000001235</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="14"/>
+        <v>0.10000000000000085</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="15"/>
-        <v>24</v>
-      </c>
-      <c r="I25">
+        <v>1.700000000000002</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="11"/>
-        <v>352.7</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="12"/>
-        <v>3.2893117604807693E-13</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="13"/>
-        <v>0.10000000000000225</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="14"/>
-        <v>1.7000000000000053</v>
-      </c>
-      <c r="O25">
+        <v>23.000000000000377</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000164</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="9"/>
+        <v>2.3000000000000034</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10000000000000014</v>
+      </c>
+      <c r="S25" s="3">
         <f t="shared" si="10"/>
-        <v>8.5109904357126611E-13</v>
-      </c>
-      <c r="P25" s="2">
-        <f t="shared" si="6"/>
-        <v>3.7004306242228962E-14</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="8"/>
-        <v>2.3000000000000074</v>
-      </c>
-      <c r="R25" s="2">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000032</v>
-      </c>
-      <c r="S25" s="3">
-        <f t="shared" si="9"/>
-        <v>1.6999999999999724</v>
+        <v>1.69999999999999</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>16</v>
@@ -1932,53 +1956,54 @@
         <v>36.870000000000005</v>
       </c>
       <c r="H26">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="12"/>
+        <v>393.7</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="13"/>
+        <v>1.0000000000003268</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="14"/>
+        <v>0.10000000000000224</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="15"/>
-        <v>25</v>
-      </c>
-      <c r="I26">
+        <v>1.6000000000000032</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="11"/>
-        <v>368.7</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="13"/>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="14"/>
-        <v>1.6000000000000003</v>
-      </c>
-      <c r="O26">
+        <v>24.000000000000703</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0000000000000293</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="9"/>
+        <v>2.4000000000000057</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10000000000000024</v>
+      </c>
+      <c r="S26" s="3">
         <f t="shared" si="10"/>
-        <v>8.5109904357126611E-13</v>
-      </c>
-      <c r="P26" s="2">
-        <f t="shared" si="6"/>
-        <v>3.5462460148802757E-14</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="8"/>
-        <v>2.4000000000000075</v>
-      </c>
-      <c r="R26" s="2">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000031</v>
-      </c>
-      <c r="S26" s="3">
-        <f t="shared" si="9"/>
-        <v>1.600000000000005</v>
+        <v>1.5999999999999712</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>15</v>
@@ -1991,53 +2016,54 @@
         <v>38.370000000000005</v>
       </c>
       <c r="H27">
+        <f t="shared" si="16"/>
+        <v>26</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="12"/>
+        <v>409.7</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="13"/>
+        <v>1.000000000001624</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="14"/>
+        <v>0.10000000000001102</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="15"/>
-        <v>26</v>
-      </c>
-      <c r="I27">
+        <v>1.5000000000000031</v>
+      </c>
+      <c r="O27">
         <f t="shared" si="11"/>
-        <v>383.7</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="13"/>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="14"/>
-        <v>1.5000000000000002</v>
-      </c>
-      <c r="O27">
+        <v>25.000000000002327</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="7"/>
+        <v>1.000000000000093</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="9"/>
+        <v>2.5000000000000169</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10000000000000067</v>
+      </c>
+      <c r="S27" s="3">
         <f t="shared" si="10"/>
-        <v>8.5109904357126611E-13</v>
-      </c>
-      <c r="P27" s="2">
-        <f t="shared" si="6"/>
-        <v>3.4043961742850643E-14</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="8"/>
-        <v>2.5000000000000075</v>
-      </c>
-      <c r="R27" s="2">
-        <f t="shared" si="7"/>
-        <v>0.1000000000000003</v>
-      </c>
-      <c r="S27" s="3">
-        <f t="shared" si="9"/>
-        <v>1.5000000000000044</v>
+        <v>1.4999999999998477</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>14.9</v>
+        <v>15.9</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>14.9</v>
@@ -2050,53 +2076,54 @@
         <v>39.860000000000007</v>
       </c>
       <c r="H28">
+        <f t="shared" si="16"/>
+        <v>27</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="12"/>
+        <v>425.59999999999997</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="13"/>
+        <v>1.000000000002458</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="14"/>
+        <v>0.10000000000001669</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="15"/>
-        <v>27</v>
-      </c>
-      <c r="I28">
+        <v>1.4900000000000029</v>
+      </c>
+      <c r="O28">
         <f t="shared" si="11"/>
-        <v>398.59999999999997</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="12"/>
-        <v>4.9161875771524133E-12</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="13"/>
-        <v>0.10000000000003333</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="14"/>
-        <v>1.4900000000000049</v>
-      </c>
-      <c r="O28">
+        <v>26.000000000004786</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" si="7"/>
+        <v>1.0000000000001841</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="9"/>
+        <v>2.6000000000000334</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10000000000000128</v>
+      </c>
+      <c r="S28" s="3">
         <f t="shared" si="10"/>
-        <v>5.7672866207236796E-12</v>
-      </c>
-      <c r="P28" s="2">
-        <f t="shared" si="6"/>
-        <v>2.2181871618167998E-13</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="8"/>
-        <v>2.6000000000000409</v>
-      </c>
-      <c r="R28" s="2">
-        <f t="shared" si="7"/>
-        <v>0.10000000000000157</v>
-      </c>
-      <c r="S28" s="3">
-        <f t="shared" si="9"/>
-        <v>1.4899999999995317</v>
+        <v>1.4899999999997733</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>14.8</v>
+        <v>15.8</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>14.8</v>
@@ -2109,53 +2136,54 @@
         <v>41.34</v>
       </c>
       <c r="H29">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="12"/>
+        <v>441.4</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="13"/>
+        <v>0.99999999998635758</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="14"/>
+        <v>9.9999999999907607E-2</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="15"/>
-        <v>28</v>
-      </c>
-      <c r="I29">
+        <v>1.4799999999999969</v>
+      </c>
+      <c r="O29">
         <f t="shared" si="11"/>
-        <v>413.4</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="12"/>
-        <v>-3.6379788070950217E-11</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="13"/>
-        <v>9.9999999999753605E-2</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="14"/>
-        <v>1.4799999999999913</v>
-      </c>
-      <c r="O29">
+        <v>26.999999999991143</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="7"/>
+        <v>0.99999999999967193</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="9"/>
+        <v>2.6999999999999411</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" si="8"/>
+        <v>9.9999999999997813E-2</v>
+      </c>
+      <c r="S29" s="3">
         <f t="shared" si="10"/>
-        <v>-3.0612501450226537E-11</v>
-      </c>
-      <c r="P29" s="2">
-        <f t="shared" si="6"/>
-        <v>-1.1337963500083903E-12</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="8"/>
-        <v>2.6999999999997946</v>
-      </c>
-      <c r="R29" s="2">
-        <f t="shared" si="7"/>
-        <v>9.9999999999992387E-2</v>
-      </c>
-      <c r="S29" s="3">
-        <f t="shared" si="9"/>
-        <v>1.4800000000035254</v>
+        <v>1.480000000001332</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>15</v>
@@ -2168,53 +2196,54 @@
         <v>42.84</v>
       </c>
       <c r="H30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29</v>
       </c>
       <c r="I30">
-        <f t="shared" si="11"/>
-        <v>428.4</v>
+        <f t="shared" si="12"/>
+        <v>457.4</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30:K41" si="16">(G30*I29-I30*G29)/(H29*G30-H30*G29)</f>
-        <v>0</v>
+        <f t="shared" ref="K30:K41" si="17">(G30*I29-I30*G29)/(H29*G30-H30*G29)</f>
+        <v>1</v>
       </c>
       <c r="L30">
-        <f t="shared" ref="L30:L41" si="17">G30/(I30-K30*H30)</f>
+        <f t="shared" ref="L30:L41" si="18">G30/(I30-K30*H30)</f>
         <v>0.10000000000000002</v>
       </c>
       <c r="N30">
-        <f t="shared" ref="N30:N41" si="18">(B30-K30)*L30</f>
+        <f t="shared" ref="N30:N41" si="19">(B30-K30)*L30</f>
         <v>1.5000000000000002</v>
       </c>
       <c r="O30">
-        <f t="shared" ref="O30:O41" si="19">O29+K30</f>
-        <v>-3.0612501450226537E-11</v>
+        <f t="shared" ref="O30:O41" si="20">O29+K30</f>
+        <v>27.999999999991143</v>
       </c>
       <c r="P30" s="2">
-        <f t="shared" ref="P30:P41" si="20">O30/(H30-1)</f>
-        <v>-1.0933036232223764E-12</v>
+        <f t="shared" ref="P30:P41" si="21">O30/(H30-1)</f>
+        <v>0.9999999999996837</v>
       </c>
       <c r="Q30">
-        <f t="shared" ref="Q30:Q41" si="21">Q29+L30</f>
-        <v>2.7999999999997947</v>
+        <f t="shared" ref="Q30:Q41" si="22">Q29+L30</f>
+        <v>2.7999999999999412</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" ref="R30:R41" si="22">Q30/(H30-1)</f>
-        <v>9.9999999999992664E-2</v>
+        <f t="shared" ref="R30:R41" si="23">Q30/(H30-1)</f>
+        <v>9.9999999999997896E-2</v>
       </c>
       <c r="S30" s="3">
-        <f t="shared" ref="S30:S41" si="23">(B30-K30)*R30</f>
-        <v>1.4999999999998899</v>
+        <f t="shared" ref="S30:S41" si="24">(B30-K30)*R30</f>
+        <v>1.4999999999999685</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>15.5</v>
@@ -2227,53 +2256,54 @@
         <v>44.39</v>
       </c>
       <c r="H31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="I31">
-        <f t="shared" si="11"/>
-        <v>443.9</v>
+        <f t="shared" si="12"/>
+        <v>473.9</v>
       </c>
       <c r="K31">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1.0000000000003233</v>
       </c>
       <c r="L31">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
+        <f t="shared" si="18"/>
+        <v>0.1000000000000022</v>
       </c>
       <c r="N31">
-        <f t="shared" si="18"/>
-        <v>1.55</v>
+        <f t="shared" si="19"/>
+        <v>1.5500000000000018</v>
       </c>
       <c r="O31">
-        <f t="shared" si="19"/>
-        <v>-3.0612501450226537E-11</v>
+        <f t="shared" si="20"/>
+        <v>28.999999999991466</v>
       </c>
       <c r="P31" s="2">
-        <f t="shared" si="20"/>
-        <v>-1.0556034982836736E-12</v>
+        <f t="shared" si="21"/>
+        <v>0.99999999999970579</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="21"/>
-        <v>2.8999999999997947</v>
+        <f t="shared" si="22"/>
+        <v>2.8999999999999435</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="22"/>
-        <v>9.9999999999992928E-2</v>
+        <f t="shared" si="23"/>
+        <v>9.9999999999998049E-2</v>
       </c>
       <c r="S31" s="3">
-        <f t="shared" si="23"/>
-        <v>1.5499999999998904</v>
+        <f t="shared" si="24"/>
+        <v>1.5499999999999374</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>17</v>
@@ -2286,53 +2316,54 @@
         <v>46.09</v>
       </c>
       <c r="H32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="I32">
-        <f t="shared" si="11"/>
-        <v>460.9</v>
+        <f t="shared" si="12"/>
+        <v>491.9</v>
       </c>
       <c r="K32">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1.0000000000000688</v>
       </c>
       <c r="L32">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
+        <f t="shared" si="18"/>
+        <v>0.10000000000000048</v>
       </c>
       <c r="N32">
-        <f t="shared" si="18"/>
-        <v>1.7000000000000002</v>
+        <f t="shared" si="19"/>
+        <v>1.7000000000000013</v>
       </c>
       <c r="O32">
-        <f t="shared" si="19"/>
-        <v>-3.0612501450226537E-11</v>
+        <f t="shared" si="20"/>
+        <v>29.999999999991534</v>
       </c>
       <c r="P32" s="2">
-        <f t="shared" si="20"/>
-        <v>-1.0204167150075513E-12</v>
+        <f t="shared" si="21"/>
+        <v>0.99999999999971778</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="21"/>
-        <v>2.9999999999997948</v>
+        <f t="shared" si="22"/>
+        <v>2.999999999999944</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="22"/>
-        <v>9.9999999999993164E-2</v>
+        <f t="shared" si="23"/>
+        <v>9.9999999999998132E-2</v>
       </c>
       <c r="S32" s="3">
-        <f t="shared" si="23"/>
-        <v>1.6999999999998838</v>
+        <f t="shared" si="24"/>
+        <v>1.6999999999999615</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>18</v>
@@ -2345,53 +2376,54 @@
         <v>47.89</v>
       </c>
       <c r="H33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="I33">
-        <f t="shared" si="11"/>
-        <v>478.9</v>
+        <f t="shared" si="12"/>
+        <v>510.9</v>
       </c>
       <c r="K33">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>0.99999999999992972</v>
       </c>
       <c r="L33">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
+        <f t="shared" si="18"/>
+        <v>9.9999999999999534E-2</v>
       </c>
       <c r="N33">
-        <f t="shared" si="18"/>
-        <v>1.8</v>
+        <f t="shared" si="19"/>
+        <v>1.7999999999999987</v>
       </c>
       <c r="O33">
-        <f t="shared" si="19"/>
-        <v>-3.0612501450226537E-11</v>
+        <f t="shared" si="20"/>
+        <v>30.999999999991463</v>
       </c>
       <c r="P33" s="2">
-        <f t="shared" si="20"/>
-        <v>-9.8750004678150124E-13</v>
+        <f t="shared" si="21"/>
+        <v>0.99999999999972455</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="21"/>
-        <v>3.0999999999997949</v>
+        <f t="shared" si="22"/>
+        <v>3.0999999999999437</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="22"/>
-        <v>9.9999999999993386E-2</v>
+        <f t="shared" si="23"/>
+        <v>9.9999999999998188E-2</v>
       </c>
       <c r="S33" s="3">
-        <f t="shared" si="23"/>
-        <v>1.799999999999881</v>
+        <f t="shared" si="24"/>
+        <v>1.7999999999999745</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>19</v>
@@ -2404,53 +2436,54 @@
         <v>49.79</v>
       </c>
       <c r="H34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33</v>
       </c>
       <c r="I34">
-        <f t="shared" si="11"/>
-        <v>497.9</v>
+        <f t="shared" si="12"/>
+        <v>530.9</v>
       </c>
       <c r="K34">
-        <f t="shared" si="16"/>
-        <v>-2.8179541495675863E-13</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="L34">
-        <f t="shared" si="17"/>
-        <v>9.9999999999998132E-2</v>
+        <f t="shared" si="18"/>
+        <v>0.1</v>
       </c>
       <c r="N34">
-        <f t="shared" si="18"/>
-        <v>1.8999999999999926</v>
+        <f t="shared" si="19"/>
+        <v>1.9000000000000001</v>
       </c>
       <c r="O34">
-        <f t="shared" si="19"/>
-        <v>-3.0894296865183294E-11</v>
+        <f t="shared" si="20"/>
+        <v>31.999999999991463</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" si="20"/>
-        <v>-9.6544677703697795E-13</v>
+        <f t="shared" si="21"/>
+        <v>0.99999999999973321</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="21"/>
-        <v>3.1999999999997932</v>
+        <f t="shared" si="22"/>
+        <v>3.1999999999999438</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="22"/>
-        <v>9.9999999999993539E-2</v>
+        <f t="shared" si="23"/>
+        <v>9.9999999999998243E-2</v>
       </c>
       <c r="S34" s="3">
-        <f t="shared" si="23"/>
-        <v>1.8999999999999053</v>
+        <f t="shared" si="24"/>
+        <v>1.8999999999999666</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>17</v>
@@ -2463,53 +2496,54 @@
         <v>51.49</v>
       </c>
       <c r="H35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34</v>
       </c>
       <c r="I35">
-        <f t="shared" si="11"/>
-        <v>514.9</v>
+        <f t="shared" si="12"/>
+        <v>548.9</v>
       </c>
       <c r="K35">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1.0000000000001801</v>
       </c>
       <c r="L35">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
+        <f t="shared" si="18"/>
+        <v>0.1000000000000012</v>
       </c>
       <c r="N35">
-        <f t="shared" si="18"/>
-        <v>1.7000000000000002</v>
+        <f t="shared" si="19"/>
+        <v>1.7000000000000022</v>
       </c>
       <c r="O35">
-        <f t="shared" si="19"/>
-        <v>-3.0894296865183294E-11</v>
+        <f t="shared" si="20"/>
+        <v>32.999999999991644</v>
       </c>
       <c r="P35" s="2">
-        <f t="shared" si="20"/>
-        <v>-9.3619081409646337E-13</v>
+        <f t="shared" si="21"/>
+        <v>0.99999999999974676</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="21"/>
-        <v>3.2999999999997933</v>
+        <f t="shared" si="22"/>
+        <v>3.2999999999999448</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="22"/>
-        <v>9.9999999999993733E-2</v>
+        <f t="shared" si="23"/>
+        <v>9.9999999999998326E-2</v>
       </c>
       <c r="S35" s="3">
-        <f t="shared" si="23"/>
-        <v>1.6999999999998934</v>
+        <f t="shared" si="24"/>
+        <v>1.6999999999999533</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>18</v>
@@ -2522,53 +2556,54 @@
         <v>53.29</v>
       </c>
       <c r="H36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>35</v>
       </c>
       <c r="I36">
-        <f t="shared" si="11"/>
-        <v>532.9</v>
+        <f t="shared" si="12"/>
+        <v>567.9</v>
       </c>
       <c r="K36">
-        <f t="shared" si="16"/>
-        <v>-3.7466311092603344E-13</v>
+        <f t="shared" si="17"/>
+        <v>0.99999999999992972</v>
       </c>
       <c r="L36">
-        <f t="shared" si="17"/>
-        <v>9.9999999999997549E-2</v>
+        <f t="shared" si="18"/>
+        <v>9.9999999999999534E-2</v>
       </c>
       <c r="N36">
-        <f t="shared" si="18"/>
-        <v>1.7999999999999932</v>
+        <f t="shared" si="19"/>
+        <v>1.7999999999999987</v>
       </c>
       <c r="O36">
-        <f t="shared" si="19"/>
-        <v>-3.126895997610933E-11</v>
+        <f t="shared" si="20"/>
+        <v>33.999999999991573</v>
       </c>
       <c r="P36" s="2">
-        <f t="shared" si="20"/>
-        <v>-9.1967529341498022E-13</v>
+        <f t="shared" si="21"/>
+        <v>0.9999999999997522</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="21"/>
-        <v>3.3999999999997907</v>
+        <f t="shared" si="22"/>
+        <v>3.3999999999999444</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="22"/>
-        <v>9.9999999999993844E-2</v>
+        <f t="shared" si="23"/>
+        <v>9.9999999999998368E-2</v>
       </c>
       <c r="S36" s="3">
-        <f t="shared" si="23"/>
-        <v>1.7999999999999265</v>
+        <f t="shared" si="24"/>
+        <v>1.7999999999999776</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>17</v>
@@ -2581,53 +2616,54 @@
         <v>54.99</v>
       </c>
       <c r="H37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36</v>
       </c>
       <c r="I37">
-        <f t="shared" si="11"/>
-        <v>549.9</v>
+        <f t="shared" si="12"/>
+        <v>585.9</v>
       </c>
       <c r="K37">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1.0000000000004394</v>
       </c>
       <c r="L37">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
+        <f t="shared" si="18"/>
+        <v>0.10000000000000288</v>
       </c>
       <c r="N37">
-        <f t="shared" si="18"/>
-        <v>1.7000000000000002</v>
+        <f t="shared" si="19"/>
+        <v>1.7000000000000048</v>
       </c>
       <c r="O37">
-        <f t="shared" si="19"/>
-        <v>-3.126895997610933E-11</v>
+        <f t="shared" si="20"/>
+        <v>34.999999999992013</v>
       </c>
       <c r="P37" s="2">
-        <f t="shared" si="20"/>
-        <v>-8.933988564602666E-13</v>
+        <f t="shared" si="21"/>
+        <v>0.99999999999977185</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="21"/>
-        <v>3.4999999999997908</v>
+        <f t="shared" si="22"/>
+        <v>3.4999999999999472</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="22"/>
-        <v>9.9999999999994024E-2</v>
+        <f t="shared" si="23"/>
+        <v>9.9999999999998493E-2</v>
       </c>
       <c r="S37" s="3">
-        <f t="shared" si="23"/>
-        <v>1.6999999999998985</v>
+        <f t="shared" si="24"/>
+        <v>1.6999999999999302</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>19</v>
@@ -2640,53 +2676,54 @@
         <v>56.89</v>
       </c>
       <c r="H38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37</v>
       </c>
       <c r="I38">
-        <f t="shared" si="11"/>
-        <v>568.9</v>
+        <f t="shared" si="12"/>
+        <v>605.9</v>
       </c>
       <c r="K38">
-        <f t="shared" si="16"/>
-        <v>-2.7128850164740884E-13</v>
+        <f t="shared" si="17"/>
+        <v>1.0000000000002713</v>
       </c>
       <c r="L38">
-        <f t="shared" si="17"/>
-        <v>9.9999999999998243E-2</v>
+        <f t="shared" si="18"/>
+        <v>0.10000000000000177</v>
       </c>
       <c r="N38">
-        <f t="shared" si="18"/>
-        <v>1.8999999999999937</v>
+        <f t="shared" si="19"/>
+        <v>1.9000000000000066</v>
       </c>
       <c r="O38">
-        <f t="shared" si="19"/>
-        <v>-3.1540248477756738E-11</v>
+        <f t="shared" si="20"/>
+        <v>35.999999999992284</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="20"/>
-        <v>-8.7611801327102055E-13</v>
+        <f t="shared" si="21"/>
+        <v>0.99999999999978562</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="21"/>
-        <v>3.5999999999997891</v>
+        <f t="shared" si="22"/>
+        <v>3.599999999999949</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="22"/>
-        <v>9.9999999999994149E-2</v>
+        <f t="shared" si="23"/>
+        <v>9.999999999999859E-2</v>
       </c>
       <c r="S38" s="3">
-        <f t="shared" si="23"/>
-        <v>1.8999999999999158</v>
+        <f t="shared" si="24"/>
+        <v>1.8999999999999462</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>17</v>
@@ -2699,53 +2736,54 @@
         <v>58.59</v>
       </c>
       <c r="H39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38</v>
       </c>
       <c r="I39">
-        <f t="shared" si="11"/>
-        <v>585.9</v>
+        <f t="shared" si="12"/>
+        <v>623.9</v>
       </c>
       <c r="K39">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1.0000000000003784</v>
       </c>
       <c r="L39">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
+        <f t="shared" si="18"/>
+        <v>0.10000000000000248</v>
       </c>
       <c r="N39">
-        <f t="shared" si="18"/>
-        <v>1.7000000000000002</v>
+        <f t="shared" si="19"/>
+        <v>1.7000000000000044</v>
       </c>
       <c r="O39">
-        <f t="shared" si="19"/>
-        <v>-3.1540248477756738E-11</v>
+        <f t="shared" si="20"/>
+        <v>36.99999999999266</v>
       </c>
       <c r="P39" s="2">
-        <f t="shared" si="20"/>
-        <v>-8.5243914804747941E-13</v>
+        <f t="shared" si="21"/>
+        <v>0.9999999999998016</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="21"/>
-        <v>3.6999999999997892</v>
+        <f t="shared" si="22"/>
+        <v>3.6999999999999513</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="22"/>
-        <v>9.9999999999994302E-2</v>
+        <f t="shared" si="23"/>
+        <v>9.9999999999998687E-2</v>
       </c>
       <c r="S39" s="3">
-        <f t="shared" si="23"/>
-        <v>1.6999999999999031</v>
+        <f t="shared" si="24"/>
+        <v>1.69999999999994</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>16</v>
@@ -2758,53 +2796,54 @@
         <v>60.190000000000005</v>
       </c>
       <c r="H40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>39</v>
       </c>
       <c r="I40">
-        <f t="shared" si="11"/>
-        <v>601.9</v>
+        <f t="shared" si="12"/>
+        <v>640.9</v>
       </c>
       <c r="K40">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1.0000000000028808</v>
       </c>
       <c r="L40">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
+        <f t="shared" si="18"/>
+        <v>0.10000000000001867</v>
       </c>
       <c r="N40">
-        <f t="shared" si="18"/>
-        <v>1.6</v>
+        <f t="shared" si="19"/>
+        <v>1.6000000000000105</v>
       </c>
       <c r="O40">
-        <f t="shared" si="19"/>
-        <v>-3.1540248477756738E-11</v>
+        <f t="shared" si="20"/>
+        <v>37.999999999995538</v>
       </c>
       <c r="P40" s="2">
-        <f t="shared" si="20"/>
-        <v>-8.3000653888833525E-13</v>
+        <f t="shared" si="21"/>
+        <v>0.99999999999988254</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="21"/>
-        <v>3.7999999999997893</v>
+        <f t="shared" si="22"/>
+        <v>3.7999999999999701</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="22"/>
-        <v>9.9999999999994454E-2</v>
+        <f t="shared" si="23"/>
+        <v>9.9999999999999215E-2</v>
       </c>
       <c r="S40" s="3">
-        <f t="shared" si="23"/>
-        <v>1.5999999999999113</v>
+        <f t="shared" si="24"/>
+        <v>1.5999999999996992</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>15</v>
@@ -2817,44 +2856,44 @@
         <v>61.690000000000005</v>
       </c>
       <c r="H41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>40</v>
       </c>
       <c r="I41">
-        <f t="shared" si="11"/>
-        <v>616.9</v>
+        <f t="shared" si="12"/>
+        <v>656.9</v>
       </c>
       <c r="K41">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1.0000000000013454</v>
       </c>
       <c r="L41">
-        <f t="shared" si="17"/>
-        <v>0.1</v>
+        <f t="shared" si="18"/>
+        <v>0.10000000000000873</v>
       </c>
       <c r="N41">
-        <f t="shared" si="18"/>
-        <v>1.5</v>
+        <f t="shared" si="19"/>
+        <v>1.4999999999999964</v>
       </c>
       <c r="O41">
-        <f t="shared" si="19"/>
-        <v>-3.1540248477756738E-11</v>
+        <f t="shared" si="20"/>
+        <v>38.999999999996881</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" si="20"/>
-        <v>-8.0872431994248049E-13</v>
+        <f t="shared" si="21"/>
+        <v>0.99999999999992006</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="21"/>
-        <v>3.8999999999997894</v>
+        <f t="shared" si="22"/>
+        <v>3.8999999999999786</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="22"/>
-        <v>9.9999999999994607E-2</v>
+        <f t="shared" si="23"/>
+        <v>9.999999999999945E-2</v>
       </c>
       <c r="S41" s="3">
-        <f t="shared" si="23"/>
-        <v>1.4999999999999192</v>
+        <f t="shared" si="24"/>
+        <v>1.4999999999998572</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
@@ -2872,7 +2911,7 @@
   <dimension ref="B1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2935,10 +2974,10 @@
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2">
         <f t="shared" ref="B2:B29" si="0">C2+D2</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -2955,16 +2994,17 @@
       </c>
       <c r="I2">
         <f>B2</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <f>C2</f>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -2981,15 +3021,15 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I9" si="2">I2+B3</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <f>(G3*I2-I3*G2)/(H2*G3-H3*G2)</f>
-        <v>0</v>
+        <v>1.0000000000000133</v>
       </c>
       <c r="L3">
         <f>G3/(I3-K3*H3)</f>
-        <v>0.1</v>
+        <v>0.10000000000000014</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N9" si="3">(B3-K3)*L3</f>
@@ -2997,19 +3037,19 @@
       </c>
       <c r="O3">
         <f>K3</f>
-        <v>0</v>
+        <v>1.0000000000000133</v>
       </c>
       <c r="P3" s="2">
         <f>O3</f>
-        <v>0</v>
+        <v>1.0000000000000133</v>
       </c>
       <c r="Q3">
         <f>L3</f>
-        <v>0.1</v>
+        <v>0.10000000000000014</v>
       </c>
       <c r="R3" s="2">
         <f>Q3</f>
-        <v>0.1</v>
+        <v>0.10000000000000014</v>
       </c>
       <c r="S3" s="3">
         <f>(B3-K3)*R3</f>
@@ -3019,10 +3059,11 @@
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <f t="shared" ref="C4:C41" si="4">C3</f>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -3039,48 +3080,49 @@
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <f>(G4*I3-I4*G3)/(H3*G4-H4*G3)</f>
-        <v>0</v>
+        <v>0.99999999999994671</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L33" si="4">G4/(I4-K4*H4)</f>
-        <v>9.9999999999999992E-2</v>
+        <f t="shared" ref="L4:L33" si="5">G4/(I4-K4*H4)</f>
+        <v>9.999999999999952E-2</v>
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
-        <v>1.2</v>
+        <v>1.1999999999999995</v>
       </c>
       <c r="O4">
         <f>O3+K4</f>
-        <v>0</v>
+        <v>1.99999999999996</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" ref="P4:P29" si="5">O4/(H4-1)</f>
-        <v>0</v>
+        <f t="shared" ref="P4:P29" si="6">O4/(H4-1)</f>
+        <v>0.99999999999998002</v>
       </c>
       <c r="Q4">
         <f>Q3+L4</f>
-        <v>0.2</v>
+        <v>0.19999999999999968</v>
       </c>
       <c r="R4" s="2">
         <f>Q4/(H4-1)</f>
-        <v>0.1</v>
+        <v>9.9999999999999839E-2</v>
       </c>
       <c r="S4" s="3">
         <f>(B4-K4)*R4</f>
-        <v>1.2000000000000002</v>
+        <v>1.2000000000000033</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>13</v>
@@ -3097,48 +3139,49 @@
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <f>(G5*I3-I5*G3)/(H3*G5-H5*G3)</f>
-        <v>-1.776356839400253E-14</v>
+        <v>0.99999999999999778</v>
       </c>
       <c r="L5">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999839E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>1.2999999999999996</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="O5">
         <f>O4+K5</f>
-        <v>-1.776356839400253E-14</v>
+        <v>2.9999999999999578</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="5"/>
-        <v>-5.9211894646675097E-15</v>
+        <f t="shared" si="6"/>
+        <v>0.9999999999999859</v>
       </c>
       <c r="Q5">
         <f>Q4+L5</f>
-        <v>0.29999999999999982</v>
+        <v>0.29999999999999966</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" ref="R5:R29" si="6">Q5/(H5-1)</f>
-        <v>9.9999999999999936E-2</v>
+        <f t="shared" ref="R5:R29" si="7">Q5/(H5-1)</f>
+        <v>9.9999999999999881E-2</v>
       </c>
       <c r="S5" s="3">
         <f>(B5-K5)*R5</f>
-        <v>1.3000000000000009</v>
+        <v>1.2999999999999987</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>13.5</v>
@@ -3155,48 +3198,49 @@
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>59.5</v>
+        <v>64.5</v>
       </c>
       <c r="K6">
         <f>(G6*I4-I6*G4)/(H4*G6-H6*G4)</f>
-        <v>-2.1053118096595595E-14</v>
+        <v>0.99999999999999734</v>
       </c>
       <c r="L6">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999811E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.9999999999999964E-2</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>1.3499999999999996</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="O6">
         <f>O5+K6</f>
-        <v>-3.8816686490598121E-14</v>
+        <v>3.9999999999999551</v>
       </c>
       <c r="P6">
-        <f t="shared" si="5"/>
-        <v>-9.7041716226495303E-15</v>
+        <f t="shared" si="6"/>
+        <v>0.99999999999998879</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q29" si="7">Q5+L6</f>
+        <f t="shared" ref="Q6:Q29" si="8">Q5+L6</f>
         <v>0.39999999999999963</v>
       </c>
       <c r="R6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.9999999999999908E-2</v>
       </c>
       <c r="S6">
         <f>(B6-K6)*R6</f>
-        <v>1.350000000000001</v>
+        <v>1.3499999999999992</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -3213,48 +3257,49 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>71.5</v>
+        <v>77.5</v>
       </c>
       <c r="K7">
         <f>(G7*I4-I7*G4)/(H4*G7-H7*G4)</f>
-        <v>0</v>
+        <v>0.9999999999999849</v>
       </c>
       <c r="L7">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999992E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.9999999999999867E-2</v>
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>1.2</v>
+        <v>1.1999999999999997</v>
       </c>
       <c r="O7">
         <f>O6+K7</f>
-        <v>-3.8816686490598121E-14</v>
+        <v>4.9999999999999396</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" si="5"/>
-        <v>-7.763337298119624E-15</v>
+        <f t="shared" si="6"/>
+        <v>0.9999999999999879</v>
       </c>
       <c r="Q7">
+        <f t="shared" si="8"/>
+        <v>0.4999999999999995</v>
+      </c>
+      <c r="R7" s="2">
         <f t="shared" si="7"/>
-        <v>0.49999999999999961</v>
-      </c>
-      <c r="R7" s="2">
-        <f t="shared" si="6"/>
-        <v>9.9999999999999922E-2</v>
+        <v>9.9999999999999895E-2</v>
       </c>
       <c r="S7" s="3">
-        <f t="shared" ref="S7:S29" si="8">(B7-K7)*R7</f>
-        <v>1.1999999999999991</v>
+        <f t="shared" ref="S7:S29" si="9">(B7-K7)*R7</f>
+        <v>1.2000000000000002</v>
       </c>
     </row>
     <row r="8" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>12.5</v>
@@ -3271,48 +3316,49 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1">
         <f>(G8*I5-I8*G5)/(H5*G8-H8*G5)</f>
-        <v>-4.0602442043434335E-14</v>
+        <v>0.99999999999998479</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999645E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.9999999999999853E-2</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="3"/>
-        <v>1.2499999999999996</v>
+        <v>1.2499999999999998</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" ref="O8:O29" si="9">O7+K8</f>
-        <v>-7.9419128534032463E-14</v>
+        <f t="shared" ref="O8:O29" si="10">O7+K8</f>
+        <v>5.9999999999999245</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.3236521422338744E-14</v>
+        <f t="shared" si="6"/>
+        <v>0.99999999999998745</v>
       </c>
       <c r="Q8" s="1">
+        <f t="shared" si="8"/>
+        <v>0.59999999999999931</v>
+      </c>
+      <c r="R8" s="1">
         <f t="shared" si="7"/>
-        <v>0.5999999999999992</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="6"/>
-        <v>9.9999999999999867E-2</v>
+        <v>9.9999999999999881E-2</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="8"/>
-        <v>1.2500000000000024</v>
+        <f t="shared" si="9"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>12.6</v>
+        <v>13.6</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>12.6</v>
@@ -3329,48 +3375,49 @@
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>96.6</v>
+        <v>104.6</v>
       </c>
       <c r="K9">
         <f>(G9*I5-I9*G5)/(H5*G9-H9*G5)</f>
-        <v>-3.0893162424352243E-14</v>
+        <v>1.0000000000000193</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999742E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.10000000000000014</v>
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
         <v>1.2599999999999998</v>
       </c>
       <c r="O9">
+        <f t="shared" si="10"/>
+        <v>6.999999999999944</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99999999999999201</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="8"/>
+        <v>0.69999999999999951</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="7"/>
+        <v>9.9999999999999936E-2</v>
+      </c>
+      <c r="S9" s="3">
         <f t="shared" si="9"/>
-        <v>-1.1031229095838471E-13</v>
-      </c>
-      <c r="P9" s="2">
-        <f t="shared" si="5"/>
-        <v>-1.5758898708340674E-14</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="7"/>
-        <v>0.69999999999999896</v>
-      </c>
-      <c r="R9" s="2">
-        <f t="shared" si="6"/>
-        <v>9.9999999999999853E-2</v>
-      </c>
-      <c r="S9" s="3">
-        <f t="shared" si="8"/>
-        <v>1.2600000000000011</v>
+        <v>1.2599999999999971</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -3387,49 +3434,50 @@
         <v>9</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:I29" si="10">I9+B10</f>
-        <v>109.6</v>
+        <f t="shared" ref="I10:I29" si="11">I9+B10</f>
+        <v>118.6</v>
       </c>
       <c r="K10">
         <f>(G10*I6-I10*G6)/(H6*G10-H10*G6)</f>
-        <v>0</v>
+        <v>1.000000000000091</v>
       </c>
       <c r="L10">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999992E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.10000000000000075</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:N29" si="11">(B10-K10)*L10</f>
-        <v>1.2999999999999998</v>
+        <f t="shared" ref="N10:N29" si="12">(B10-K10)*L10</f>
+        <v>1.3000000000000007</v>
       </c>
       <c r="O10">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000355</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000044</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="8"/>
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="7"/>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="S10" s="3">
         <f t="shared" si="9"/>
-        <v>-1.1031229095838471E-13</v>
-      </c>
-      <c r="P10" s="2">
-        <f t="shared" si="5"/>
-        <v>-1.3789036369798088E-14</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="7"/>
-        <v>0.79999999999999893</v>
-      </c>
-      <c r="R10" s="2">
-        <f t="shared" si="6"/>
-        <v>9.9999999999999867E-2</v>
-      </c>
-      <c r="S10" s="3">
-        <f t="shared" si="8"/>
-        <v>1.2999999999999983</v>
+        <v>1.2999999999999914</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>13.1</v>
+        <v>14.1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>13.1</v>
@@ -3442,53 +3490,54 @@
         <v>12.27</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H41" si="12">H10+1</f>
+        <f t="shared" ref="H11:H41" si="13">H10+1</f>
         <v>10</v>
       </c>
       <c r="I11">
-        <f t="shared" si="10"/>
-        <v>122.69999999999999</v>
+        <f t="shared" si="11"/>
+        <v>132.69999999999999</v>
       </c>
       <c r="K11">
         <f>(G11*I6-I11*G6)/(H6*G11-H11*G6)</f>
-        <v>6.1452344714386996E-14</v>
+        <v>1.0000000000000731</v>
       </c>
       <c r="L11">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000051</v>
+        <f t="shared" si="5"/>
+        <v>0.1000000000000006</v>
       </c>
       <c r="N11">
-        <f t="shared" si="11"/>
-        <v>1.3100000000000003</v>
+        <f t="shared" si="12"/>
+        <v>1.3100000000000005</v>
       </c>
       <c r="O11">
+        <f t="shared" si="10"/>
+        <v>9.0000000000001084</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="6"/>
+        <v>1.000000000000012</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="8"/>
+        <v>0.90000000000000091</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="S11" s="3">
         <f t="shared" si="9"/>
-        <v>-4.885994624399771E-14</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="5"/>
-        <v>-5.4288829159997458E-15</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="7"/>
-        <v>0.89999999999999947</v>
-      </c>
-      <c r="R11" s="2">
-        <f t="shared" si="6"/>
-        <v>9.9999999999999936E-2</v>
-      </c>
-      <c r="S11" s="3">
-        <f t="shared" si="8"/>
-        <v>1.3099999999999929</v>
+        <v>1.3099999999999941</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>13</v>
@@ -3501,53 +3550,54 @@
         <v>13.57</v>
       </c>
       <c r="H12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="I12">
-        <f t="shared" si="10"/>
-        <v>135.69999999999999</v>
+        <f t="shared" si="11"/>
+        <v>146.69999999999999</v>
       </c>
       <c r="K12">
         <f>(G12*I7-I12*G7)/(H7*G12-H12*G7)</f>
-        <v>4.1042179682893725E-14</v>
+        <v>1.0000000000000717</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000035</v>
+        <f t="shared" si="5"/>
+        <v>0.1000000000000006</v>
       </c>
       <c r="N12">
-        <f t="shared" si="11"/>
-        <v>1.3000000000000005</v>
+        <f t="shared" si="12"/>
+        <v>1.3000000000000007</v>
       </c>
       <c r="O12">
+        <f t="shared" si="10"/>
+        <v>10.000000000000179</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="6"/>
+        <v>1.000000000000018</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000016</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="7"/>
+        <v>0.10000000000000016</v>
+      </c>
+      <c r="S12" s="3">
         <f t="shared" si="9"/>
-        <v>-7.8177665611039854E-15</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" si="5"/>
-        <v>-7.8177665611039851E-16</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="7"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="R12" s="2">
-        <f t="shared" si="6"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="S12" s="3">
-        <f t="shared" si="8"/>
-        <v>1.2999999999999956</v>
+        <v>1.2999999999999949</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>14</v>
@@ -3560,53 +3610,54 @@
         <v>14.97</v>
       </c>
       <c r="H13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="I13">
-        <f t="shared" si="10"/>
-        <v>149.69999999999999</v>
+        <f t="shared" si="11"/>
+        <v>161.69999999999999</v>
       </c>
       <c r="K13">
         <f>(G13*I7-I13*G7)/(H7*G13-H13*G7)</f>
-        <v>5.6560615781898378E-14</v>
+        <v>1.0000000000000495</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000046</v>
+        <f t="shared" si="5"/>
+        <v>0.10000000000000041</v>
       </c>
       <c r="N13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.4000000000000008</v>
       </c>
       <c r="O13">
+        <f t="shared" si="10"/>
+        <v>11.000000000000229</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000209</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000019</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="7"/>
+        <v>0.10000000000000017</v>
+      </c>
+      <c r="S13" s="3">
         <f t="shared" si="9"/>
-        <v>4.8742849220794393E-14</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="5"/>
-        <v>4.4311681109813084E-15</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="7"/>
-        <v>1.1000000000000003</v>
-      </c>
-      <c r="R13" s="2">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000003</v>
-      </c>
-      <c r="S13" s="3">
-        <f t="shared" si="8"/>
-        <v>1.3999999999999948</v>
+        <v>1.3999999999999975</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>15</v>
@@ -3619,53 +3670,54 @@
         <v>16.47</v>
       </c>
       <c r="H14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="I14">
-        <f t="shared" si="10"/>
-        <v>164.7</v>
+        <f t="shared" si="11"/>
+        <v>177.7</v>
       </c>
       <c r="K14">
         <f>(G14*I8-I14*G8)/(H8*G14-H14*G8)</f>
-        <v>7.467115778102855E-14</v>
+        <v>1.0000000000000606</v>
       </c>
       <c r="L14">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000059</v>
+        <f t="shared" si="5"/>
+        <v>0.10000000000000048</v>
       </c>
       <c r="N14">
-        <f t="shared" si="11"/>
-        <v>1.5000000000000013</v>
+        <f t="shared" si="12"/>
+        <v>1.5000000000000011</v>
       </c>
       <c r="O14">
+        <f t="shared" si="10"/>
+        <v>12.00000000000029</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000242</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="8"/>
+        <v>1.2000000000000024</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1000000000000002</v>
+      </c>
+      <c r="S14" s="3">
         <f t="shared" si="9"/>
-        <v>1.2341400700182293E-13</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" si="5"/>
-        <v>1.0284500583485245E-14</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="7"/>
-        <v>1.2000000000000008</v>
-      </c>
-      <c r="R14" s="2">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000007</v>
-      </c>
-      <c r="S14" s="3">
-        <f t="shared" si="8"/>
-        <v>1.4999999999999936</v>
+        <v>1.4999999999999969</v>
       </c>
     </row>
     <row r="15" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <v>15</v>
@@ -3678,53 +3730,54 @@
         <v>17.97</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="10"/>
-        <v>179.7</v>
+        <f t="shared" si="11"/>
+        <v>193.7</v>
       </c>
       <c r="K15" s="1">
         <f>(G15*I8-I15*G8)/(H8*G15-H15*G8)</f>
-        <v>5.5524707067944253E-14</v>
+        <v>1.0000000000000329</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000042</v>
+        <f t="shared" si="5"/>
+        <v>0.10000000000000026</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="11"/>
-        <v>1.5000000000000009</v>
+        <f t="shared" si="12"/>
+        <v>1.5000000000000007</v>
       </c>
       <c r="O15" s="1">
+        <f t="shared" si="10"/>
+        <v>13.000000000000323</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000249</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="8"/>
+        <v>1.3000000000000027</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="7"/>
+        <v>0.10000000000000021</v>
+      </c>
+      <c r="S15" s="1">
         <f t="shared" si="9"/>
-        <v>1.7893871406976717E-13</v>
-      </c>
-      <c r="P15" s="1">
-        <f t="shared" si="5"/>
-        <v>1.3764516466905167E-14</v>
-      </c>
-      <c r="Q15" s="1">
-        <f t="shared" si="7"/>
-        <v>1.3000000000000012</v>
-      </c>
-      <c r="R15" s="1">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="S15" s="1">
-        <f t="shared" si="8"/>
-        <v>1.4999999999999958</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -3737,53 +3790,54 @@
         <v>19.47</v>
       </c>
       <c r="H16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="I16">
-        <f t="shared" si="10"/>
-        <v>194.7</v>
+        <f t="shared" si="11"/>
+        <v>209.7</v>
       </c>
       <c r="K16">
         <f>(G16*I9-I16*G9)/(H9*G16-H16*G9)</f>
-        <v>0</v>
+        <v>1.0000000000000104</v>
       </c>
       <c r="L16">
-        <f t="shared" si="4"/>
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="N16">
-        <f t="shared" si="11"/>
-        <v>1.5</v>
+        <f t="shared" si="12"/>
+        <v>1.5000000000000002</v>
       </c>
       <c r="O16">
+        <f t="shared" si="10"/>
+        <v>14.000000000000334</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000238</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="8"/>
+        <v>1.4000000000000028</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1000000000000002</v>
+      </c>
+      <c r="S16" s="3">
         <f t="shared" si="9"/>
-        <v>1.7893871406976717E-13</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" si="5"/>
-        <v>1.2781336719269083E-14</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="7"/>
-        <v>1.4000000000000012</v>
-      </c>
-      <c r="R16" s="2">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="S16" s="3">
-        <f t="shared" si="8"/>
-        <v>1.5000000000000013</v>
+        <v>1.500000000000002</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -3796,53 +3850,54 @@
         <v>21.07</v>
       </c>
       <c r="H17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="I17">
-        <f t="shared" si="10"/>
-        <v>210.7</v>
+        <f t="shared" si="11"/>
+        <v>226.7</v>
       </c>
       <c r="K17">
         <f>(G17*I9-I17*G9)/(H9*G17-H17*G9)</f>
-        <v>1.6240976817373686E-14</v>
+        <v>1.0000000000000304</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000013</v>
+        <f t="shared" si="5"/>
+        <v>0.10000000000000024</v>
       </c>
       <c r="N17">
-        <f t="shared" si="11"/>
-        <v>1.6000000000000005</v>
+        <f t="shared" si="12"/>
+        <v>1.6000000000000008</v>
       </c>
       <c r="O17">
+        <f t="shared" si="10"/>
+        <v>15.000000000000364</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000242</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="8"/>
+        <v>1.5000000000000031</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="7"/>
+        <v>0.10000000000000021</v>
+      </c>
+      <c r="S17" s="3">
         <f t="shared" si="9"/>
-        <v>1.9517969088714086E-13</v>
-      </c>
-      <c r="P17" s="2">
-        <f t="shared" si="5"/>
-        <v>1.3011979392476057E-14</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="7"/>
-        <v>1.5000000000000013</v>
-      </c>
-      <c r="R17" s="2">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="S17" s="3">
-        <f t="shared" si="8"/>
-        <v>1.5999999999999999</v>
+        <v>1.6000000000000003</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -3855,53 +3910,54 @@
         <v>22.77</v>
       </c>
       <c r="H18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="I18">
-        <f t="shared" si="10"/>
-        <v>227.7</v>
+        <f t="shared" si="11"/>
+        <v>244.7</v>
       </c>
       <c r="K18">
         <f>(G18*I10-I18*G10)/(H10*G18-H18*G10)</f>
-        <v>0</v>
+        <v>1.0000000000000062</v>
       </c>
       <c r="L18">
-        <f t="shared" si="4"/>
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>0.10000000000000005</v>
       </c>
       <c r="N18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.7000000000000002</v>
       </c>
       <c r="O18">
+        <f t="shared" si="10"/>
+        <v>16.000000000000369</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000231</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="8"/>
+        <v>1.6000000000000032</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1000000000000002</v>
+      </c>
+      <c r="S18" s="3">
         <f t="shared" si="9"/>
-        <v>1.9517969088714086E-13</v>
-      </c>
-      <c r="P18" s="2">
-        <f t="shared" si="5"/>
-        <v>1.2198730680446304E-14</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="7"/>
-        <v>1.6000000000000014</v>
-      </c>
-      <c r="R18" s="2">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="S18" s="3">
-        <f t="shared" si="8"/>
-        <v>1.7000000000000015</v>
+        <v>1.7000000000000026</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -3914,53 +3970,54 @@
         <v>24.57</v>
       </c>
       <c r="H19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="I19">
-        <f t="shared" si="10"/>
-        <v>245.7</v>
+        <f t="shared" si="11"/>
+        <v>263.7</v>
       </c>
       <c r="K19">
         <f>(G19*I10-I19*G10)/(H10*G19-H19*G10)</f>
-        <v>0</v>
+        <v>1.0000000000000142</v>
       </c>
       <c r="L19">
-        <f t="shared" si="4"/>
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>0.10000000000000012</v>
       </c>
       <c r="N19">
-        <f t="shared" si="11"/>
-        <v>1.8</v>
+        <f t="shared" si="12"/>
+        <v>1.8000000000000007</v>
       </c>
       <c r="O19">
+        <f t="shared" si="10"/>
+        <v>17.000000000000384</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000226</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="8"/>
+        <v>1.7000000000000033</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1000000000000002</v>
+      </c>
+      <c r="S19" s="3">
         <f t="shared" si="9"/>
-        <v>1.9517969088714086E-13</v>
-      </c>
-      <c r="P19" s="2">
-        <f t="shared" si="5"/>
-        <v>1.1481158287478873E-14</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="7"/>
-        <v>1.7000000000000015</v>
-      </c>
-      <c r="R19" s="2">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="S19" s="3">
-        <f t="shared" si="8"/>
-        <v>1.8000000000000016</v>
+        <v>1.8000000000000023</v>
       </c>
     </row>
     <row r="20" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
         <v>19</v>
@@ -3973,53 +4030,54 @@
         <v>26.47</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="10"/>
-        <v>264.7</v>
+        <f t="shared" si="11"/>
+        <v>283.7</v>
       </c>
       <c r="K20" s="1">
         <f>(G20*I11-I20*G11)/(H11*G20-H20*G11)</f>
-        <v>0</v>
+        <v>0.99999999999999101</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="4"/>
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>9.9999999999999936E-2</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="11"/>
-        <v>1.9000000000000001</v>
+        <f t="shared" si="12"/>
+        <v>1.9</v>
       </c>
       <c r="O20" s="1">
+        <f t="shared" si="10"/>
+        <v>18.000000000000373</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000207</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="8"/>
+        <v>1.8000000000000032</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="7"/>
+        <v>0.10000000000000017</v>
+      </c>
+      <c r="S20" s="1">
         <f t="shared" si="9"/>
-        <v>1.9517969088714086E-13</v>
-      </c>
-      <c r="P20" s="1">
-        <f t="shared" si="5"/>
-        <v>1.0843316160396714E-14</v>
-      </c>
-      <c r="Q20" s="1">
-        <f t="shared" si="7"/>
-        <v>1.8000000000000016</v>
-      </c>
-      <c r="R20" s="1">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="S20" s="1">
-        <f t="shared" si="8"/>
-        <v>1.9000000000000017</v>
+        <v>1.9000000000000044</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>17</v>
@@ -4032,53 +4090,54 @@
         <v>28.169999999999998</v>
       </c>
       <c r="H21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="I21">
-        <f t="shared" si="10"/>
-        <v>281.7</v>
+        <f t="shared" si="11"/>
+        <v>301.7</v>
       </c>
       <c r="K21">
         <f>(G21*I11-I21*G11)/(H11*G21-H21*G11)</f>
-        <v>-1.2527475231032065E-14</v>
+        <v>0.99999999999999212</v>
       </c>
       <c r="L21">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999922E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.9999999999999936E-2</v>
       </c>
       <c r="N21">
-        <f t="shared" si="11"/>
-        <v>1.7000000000000002</v>
+        <f t="shared" si="12"/>
+        <v>1.6999999999999997</v>
       </c>
       <c r="O21">
+        <f t="shared" si="10"/>
+        <v>19.000000000000366</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000193</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="8"/>
+        <v>1.900000000000003</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" si="7"/>
+        <v>0.10000000000000016</v>
+      </c>
+      <c r="S21" s="3">
         <f t="shared" si="9"/>
-        <v>1.8265221565610879E-13</v>
-      </c>
-      <c r="P21" s="2">
-        <f t="shared" si="5"/>
-        <v>9.6132745082162515E-15</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="7"/>
-        <v>1.9000000000000015</v>
-      </c>
-      <c r="R21" s="2">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000007</v>
-      </c>
-      <c r="S21" s="3">
-        <f t="shared" si="8"/>
-        <v>1.7000000000000026</v>
+        <v>1.7000000000000035</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>18</v>
@@ -4091,53 +4150,54 @@
         <v>29.97</v>
       </c>
       <c r="H22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="I22">
-        <f t="shared" si="10"/>
-        <v>299.7</v>
+        <f t="shared" si="11"/>
+        <v>320.7</v>
       </c>
       <c r="K22">
         <f>(G22*I12-I22*G12)/(H12*G22-H22*G12)</f>
-        <v>-1.0173318811777736E-14</v>
+        <v>0.99999999999997713</v>
       </c>
       <c r="L22">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999922E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.9999999999999853E-2</v>
       </c>
       <c r="N22">
-        <f t="shared" si="11"/>
-        <v>1.7999999999999996</v>
+        <f t="shared" si="12"/>
+        <v>1.7999999999999994</v>
       </c>
       <c r="O22">
+        <f t="shared" si="10"/>
+        <v>20.000000000000345</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000173</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000027</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="7"/>
+        <v>0.10000000000000013</v>
+      </c>
+      <c r="S22" s="3">
         <f t="shared" si="9"/>
-        <v>1.7247889684433106E-13</v>
-      </c>
-      <c r="P22" s="2">
-        <f t="shared" si="5"/>
-        <v>8.6239448422165526E-15</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="7"/>
-        <v>2.0000000000000013</v>
-      </c>
-      <c r="R22" s="2">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000006</v>
-      </c>
-      <c r="S22" s="3">
-        <f t="shared" si="8"/>
-        <v>1.8000000000000023</v>
+        <v>1.8000000000000045</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>17</v>
@@ -4150,53 +4210,54 @@
         <v>31.669999999999998</v>
       </c>
       <c r="H23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="I23">
-        <f t="shared" si="10"/>
-        <v>316.7</v>
+        <f t="shared" si="11"/>
+        <v>338.7</v>
       </c>
       <c r="K23">
         <f>(G23*I12-I23*G12)/(H12*G23-H23*G12)</f>
-        <v>0</v>
+        <v>0.99999999999999889</v>
       </c>
       <c r="L23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="N23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.7</v>
       </c>
       <c r="O23">
+        <f t="shared" si="10"/>
+        <v>21.000000000000345</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000164</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="8"/>
+        <v>2.1000000000000028</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="7"/>
+        <v>0.10000000000000013</v>
+      </c>
+      <c r="S23" s="3">
         <f t="shared" si="9"/>
-        <v>1.7247889684433106E-13</v>
-      </c>
-      <c r="P23" s="2">
-        <f t="shared" si="5"/>
-        <v>8.2132808021110027E-15</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="7"/>
-        <v>2.1000000000000014</v>
-      </c>
-      <c r="R23" s="2">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000006</v>
-      </c>
-      <c r="S23" s="3">
-        <f t="shared" si="8"/>
-        <v>1.7000000000000011</v>
+        <v>1.7000000000000022</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>19</v>
@@ -4209,53 +4270,54 @@
         <v>33.57</v>
       </c>
       <c r="H24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="I24">
-        <f t="shared" si="10"/>
-        <v>335.7</v>
+        <f t="shared" si="11"/>
+        <v>358.7</v>
       </c>
       <c r="K24">
         <f>(G24*I13-I24*G13)/(H13*G24-H24*G13)</f>
-        <v>0</v>
+        <v>0.99999999999997957</v>
       </c>
       <c r="L24">
-        <f t="shared" si="4"/>
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>9.9999999999999867E-2</v>
       </c>
       <c r="N24">
-        <f t="shared" si="11"/>
-        <v>1.9000000000000001</v>
+        <f t="shared" si="12"/>
+        <v>1.8999999999999997</v>
       </c>
       <c r="O24">
+        <f t="shared" si="10"/>
+        <v>22.000000000000323</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000147</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="8"/>
+        <v>2.2000000000000028</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="7"/>
+        <v>0.10000000000000013</v>
+      </c>
+      <c r="S24" s="3">
         <f t="shared" si="9"/>
-        <v>1.7247889684433106E-13</v>
-      </c>
-      <c r="P24" s="2">
-        <f t="shared" si="5"/>
-        <v>7.8399498565605025E-15</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="7"/>
-        <v>2.2000000000000015</v>
-      </c>
-      <c r="R24" s="2">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000007</v>
-      </c>
-      <c r="S24" s="3">
-        <f t="shared" si="8"/>
-        <v>1.9000000000000015</v>
+        <v>1.9000000000000046</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>17</v>
@@ -4268,53 +4330,54 @@
         <v>35.270000000000003</v>
       </c>
       <c r="H25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="I25">
-        <f t="shared" si="10"/>
-        <v>352.7</v>
+        <f t="shared" si="11"/>
+        <v>376.7</v>
       </c>
       <c r="K25">
         <f>(G25*I13-I25*G13)/(H13*G25-H25*G13)</f>
-        <v>0</v>
+        <v>0.99999999999998668</v>
       </c>
       <c r="L25">
-        <f t="shared" si="4"/>
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>9.9999999999999922E-2</v>
       </c>
       <c r="N25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.7000000000000002</v>
       </c>
       <c r="O25">
+        <f t="shared" si="10"/>
+        <v>23.000000000000309</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000135</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="8"/>
+        <v>2.3000000000000029</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="7"/>
+        <v>0.10000000000000013</v>
+      </c>
+      <c r="S25" s="3">
         <f t="shared" si="9"/>
-        <v>1.7247889684433106E-13</v>
-      </c>
-      <c r="P25" s="2">
-        <f t="shared" si="5"/>
-        <v>7.4990824714926549E-15</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="7"/>
-        <v>2.3000000000000016</v>
-      </c>
-      <c r="R25" s="2">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000007</v>
-      </c>
-      <c r="S25" s="3">
-        <f t="shared" si="8"/>
-        <v>1.7000000000000013</v>
+        <v>1.7000000000000037</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>16</v>
@@ -4327,53 +4390,54 @@
         <v>36.870000000000005</v>
       </c>
       <c r="H26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="I26">
-        <f t="shared" si="10"/>
-        <v>368.7</v>
+        <f t="shared" si="11"/>
+        <v>393.7</v>
       </c>
       <c r="K26">
         <f>(G26*I14-I26*G14)/(H14*G26-H26*G14)</f>
-        <v>1.346202933352468E-14</v>
+        <v>1.0000000000000051</v>
       </c>
       <c r="L26">
-        <f t="shared" si="4"/>
-        <v>0.1000000000000001</v>
+        <f t="shared" si="5"/>
+        <v>0.10000000000000005</v>
       </c>
       <c r="N26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.6000000000000003</v>
       </c>
       <c r="O26">
+        <f t="shared" si="10"/>
+        <v>24.000000000000313</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000131</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="8"/>
+        <v>2.400000000000003</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="7"/>
+        <v>0.10000000000000013</v>
+      </c>
+      <c r="S26" s="3">
         <f t="shared" si="9"/>
-        <v>1.8594092617785576E-13</v>
-      </c>
-      <c r="P26" s="2">
-        <f t="shared" si="5"/>
-        <v>7.7475385907439904E-15</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="7"/>
-        <v>2.4000000000000017</v>
-      </c>
-      <c r="R26" s="2">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000007</v>
-      </c>
-      <c r="S26" s="3">
-        <f t="shared" si="8"/>
-        <v>1.5999999999999999</v>
+        <v>1.6000000000000016</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>15</v>
@@ -4386,53 +4450,54 @@
         <v>38.370000000000005</v>
       </c>
       <c r="H27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="I27">
-        <f t="shared" si="10"/>
-        <v>383.7</v>
+        <f t="shared" si="11"/>
+        <v>409.7</v>
       </c>
       <c r="K27">
         <f>(G27*I14-I27*G14)/(H14*G27-H27*G14)</f>
-        <v>1.2884186170462206E-14</v>
+        <v>1.0000000000000138</v>
       </c>
       <c r="L27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1000000000000001</v>
       </c>
       <c r="N27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.5000000000000002</v>
       </c>
       <c r="O27">
+        <f t="shared" si="10"/>
+        <v>25.000000000000327</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000131</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="8"/>
+        <v>2.5000000000000031</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="7"/>
+        <v>0.10000000000000013</v>
+      </c>
+      <c r="S27" s="3">
         <f t="shared" si="9"/>
-        <v>1.9882511234831795E-13</v>
-      </c>
-      <c r="P27" s="2">
-        <f t="shared" si="5"/>
-        <v>7.9530044939327182E-15</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="7"/>
-        <v>2.5000000000000018</v>
-      </c>
-      <c r="R27" s="2">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000007</v>
-      </c>
-      <c r="S27" s="3">
-        <f t="shared" si="8"/>
-        <v>1.4999999999999998</v>
+        <v>1.5000000000000004</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>14.9</v>
+        <v>15.9</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>14.9</v>
@@ -4445,53 +4510,54 @@
         <v>39.860000000000007</v>
       </c>
       <c r="H28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="I28">
-        <f t="shared" si="10"/>
-        <v>398.59999999999997</v>
+        <f t="shared" si="11"/>
+        <v>425.59999999999997</v>
       </c>
       <c r="K28">
         <f>(G28*I15-I28*G15)/(H15*G28-H28*G15)</f>
-        <v>2.4968969163292424E-14</v>
+        <v>1.0000000000000155</v>
       </c>
       <c r="L28">
-        <f t="shared" si="4"/>
-        <v>0.1000000000000002</v>
+        <f t="shared" si="5"/>
+        <v>0.10000000000000013</v>
       </c>
       <c r="N28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.4900000000000004</v>
       </c>
       <c r="O28">
+        <f t="shared" si="10"/>
+        <v>26.000000000000341</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000131</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="8"/>
+        <v>2.6000000000000032</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="7"/>
+        <v>0.10000000000000012</v>
+      </c>
+      <c r="S28" s="3">
         <f t="shared" si="9"/>
-        <v>2.2379408151161039E-13</v>
-      </c>
-      <c r="P28" s="2">
-        <f t="shared" si="5"/>
-        <v>8.6074646735234768E-15</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="7"/>
-        <v>2.6000000000000019</v>
-      </c>
-      <c r="R28" s="2">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000007</v>
-      </c>
-      <c r="S28" s="3">
-        <f t="shared" si="8"/>
-        <v>1.4899999999999987</v>
+        <v>1.4900000000000002</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>14.8</v>
+        <v>15.8</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>14.8</v>
@@ -4504,53 +4570,54 @@
         <v>41.34</v>
       </c>
       <c r="H29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="I29">
-        <f t="shared" si="10"/>
-        <v>413.4</v>
+        <f t="shared" si="11"/>
+        <v>441.4</v>
       </c>
       <c r="K29">
         <f>(G29*I15-I29*G15)/(H15*G29-H29*G15)</f>
-        <v>1.2030353198054602E-14</v>
+        <v>1.0000000000000164</v>
       </c>
       <c r="L29">
-        <f t="shared" si="4"/>
-        <v>0.1000000000000001</v>
+        <f t="shared" si="5"/>
+        <v>0.10000000000000013</v>
       </c>
       <c r="N29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.4800000000000004</v>
       </c>
       <c r="O29">
+        <f t="shared" si="10"/>
+        <v>27.000000000000359</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000133</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="8"/>
+        <v>2.7000000000000033</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" si="7"/>
+        <v>0.10000000000000012</v>
+      </c>
+      <c r="S29" s="3">
         <f t="shared" si="9"/>
-        <v>2.3582443470966497E-13</v>
-      </c>
-      <c r="P29" s="2">
-        <f t="shared" si="5"/>
-        <v>8.7342383225801842E-15</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="7"/>
-        <v>2.700000000000002</v>
-      </c>
-      <c r="R29" s="2">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000007</v>
-      </c>
-      <c r="S29" s="3">
-        <f t="shared" si="8"/>
-        <v>1.48</v>
+        <v>1.4800000000000002</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30">
-        <f t="shared" ref="B30:B31" si="13">C30+D30</f>
-        <v>15</v>
+        <f t="shared" ref="B30:B31" si="14">C30+D30</f>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>15</v>
@@ -4559,57 +4626,58 @@
         <v>1.5</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:G41" si="14">G29+E30</f>
+        <f t="shared" ref="G30:G41" si="15">G29+E30</f>
         <v>42.84</v>
       </c>
       <c r="H30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="I30">
-        <f t="shared" ref="I30:I41" si="15">I29+B30</f>
-        <v>428.4</v>
+        <f t="shared" ref="I30:I41" si="16">I29+B30</f>
+        <v>457.4</v>
       </c>
       <c r="K30">
         <f>(G30*I16-I30*G16)/(H16*G30-H30*G16)</f>
-        <v>2.3329349795380989E-14</v>
+        <v>1.0000000000000147</v>
       </c>
       <c r="L30">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000017</v>
+        <f t="shared" si="5"/>
+        <v>0.10000000000000012</v>
       </c>
       <c r="N30">
-        <f t="shared" ref="N30:N33" si="16">(B30-K30)*L30</f>
+        <f t="shared" ref="N30:N33" si="17">(B30-K30)*L30</f>
         <v>1.5000000000000002</v>
       </c>
       <c r="O30">
-        <f t="shared" ref="O30:O33" si="17">O29+K30</f>
-        <v>2.5915378450504595E-13</v>
+        <f t="shared" ref="O30:O33" si="18">O29+K30</f>
+        <v>28.000000000000373</v>
       </c>
       <c r="P30" s="2">
-        <f t="shared" ref="P30:P33" si="18">O30/(H30-1)</f>
-        <v>9.2554923037516414E-15</v>
+        <f t="shared" ref="P30:P33" si="19">O30/(H30-1)</f>
+        <v>1.0000000000000133</v>
       </c>
       <c r="Q30">
-        <f t="shared" ref="Q30:Q33" si="19">Q29+L30</f>
-        <v>2.800000000000002</v>
+        <f t="shared" ref="Q30:Q33" si="20">Q29+L30</f>
+        <v>2.8000000000000034</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" ref="R30:R33" si="20">Q30/(H30-1)</f>
-        <v>0.10000000000000007</v>
+        <f t="shared" ref="R30:R33" si="21">Q30/(H30-1)</f>
+        <v>0.10000000000000012</v>
       </c>
       <c r="S30" s="3">
-        <f t="shared" ref="S30:S33" si="21">(B30-K30)*R30</f>
-        <v>1.4999999999999989</v>
+        <f t="shared" ref="S30:S33" si="22">(B30-K30)*R30</f>
+        <v>1.5000000000000002</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31">
-        <f t="shared" si="13"/>
-        <v>15.5</v>
+        <f t="shared" si="14"/>
+        <v>16.5</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>15.5</v>
@@ -4618,57 +4686,58 @@
         <v>1.55</v>
       </c>
       <c r="G31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>44.39</v>
       </c>
       <c r="H31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="I31">
-        <f t="shared" si="15"/>
-        <v>443.9</v>
+        <f t="shared" si="16"/>
+        <v>473.9</v>
       </c>
       <c r="K31">
         <f>(G31*I16-I31*G16)/(H16*G31-H31*G16)</f>
-        <v>2.2250634905759681E-14</v>
+        <v>0.99999999999999856</v>
       </c>
       <c r="L31">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000016</v>
+        <f t="shared" si="5"/>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="N31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.55</v>
       </c>
       <c r="O31">
-        <f t="shared" si="17"/>
-        <v>2.8140441941080565E-13</v>
+        <f t="shared" si="18"/>
+        <v>29.000000000000373</v>
       </c>
       <c r="P31" s="2">
-        <f t="shared" si="18"/>
-        <v>9.703600669338126E-15</v>
+        <f t="shared" si="19"/>
+        <v>1.0000000000000129</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="19"/>
-        <v>2.9000000000000021</v>
+        <f t="shared" si="20"/>
+        <v>2.9000000000000035</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="20"/>
-        <v>0.10000000000000007</v>
+        <f t="shared" si="21"/>
+        <v>0.10000000000000012</v>
       </c>
       <c r="S31" s="3">
-        <f t="shared" si="21"/>
-        <v>1.5499999999999989</v>
+        <f t="shared" si="22"/>
+        <v>1.550000000000002</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32">
-        <f t="shared" ref="B32:B41" si="22">C32+D32</f>
-        <v>17</v>
+        <f t="shared" ref="B32:B41" si="23">C32+D32</f>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>17</v>
@@ -4677,57 +4746,58 @@
         <v>1.7</v>
       </c>
       <c r="G32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>46.09</v>
       </c>
       <c r="H32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
       <c r="I32">
-        <f t="shared" si="15"/>
-        <v>460.9</v>
+        <f t="shared" si="16"/>
+        <v>491.9</v>
       </c>
       <c r="K32">
         <f>(G32*I17-I32*G17)/(H17*G32-H32*G17)</f>
-        <v>0</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="L32">
-        <f t="shared" si="4"/>
-        <v>0.1</v>
+        <f t="shared" si="5"/>
+        <v>0.10000000000000003</v>
       </c>
       <c r="N32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.7000000000000002</v>
       </c>
       <c r="O32">
-        <f t="shared" si="17"/>
-        <v>2.8140441941080565E-13</v>
+        <f t="shared" si="18"/>
+        <v>30.000000000000377</v>
       </c>
       <c r="P32" s="2">
-        <f t="shared" si="18"/>
-        <v>9.3801473136935214E-15</v>
+        <f t="shared" si="19"/>
+        <v>1.0000000000000127</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="19"/>
-        <v>3.0000000000000022</v>
+        <f t="shared" si="20"/>
+        <v>3.0000000000000036</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="20"/>
-        <v>0.10000000000000007</v>
+        <f t="shared" si="21"/>
+        <v>0.10000000000000012</v>
       </c>
       <c r="S32" s="3">
-        <f t="shared" si="21"/>
-        <v>1.7000000000000013</v>
+        <f t="shared" si="22"/>
+        <v>1.7000000000000017</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33">
-        <f t="shared" si="22"/>
-        <v>18</v>
+        <f t="shared" si="23"/>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>18</v>
@@ -4736,57 +4806,58 @@
         <v>1.8</v>
       </c>
       <c r="G33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>47.89</v>
       </c>
       <c r="H33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="I33">
-        <f t="shared" si="15"/>
-        <v>478.9</v>
+        <f t="shared" si="16"/>
+        <v>510.9</v>
       </c>
       <c r="K33">
         <f>(G33*I17-I33*G17)/(H17*G33-H33*G17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="N33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.8</v>
       </c>
       <c r="O33">
-        <f t="shared" si="17"/>
-        <v>2.8140441941080565E-13</v>
+        <f t="shared" si="18"/>
+        <v>31.000000000000377</v>
       </c>
       <c r="P33" s="2">
-        <f t="shared" si="18"/>
-        <v>9.0775619164776015E-15</v>
+        <f t="shared" si="19"/>
+        <v>1.0000000000000122</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="19"/>
-        <v>3.1000000000000023</v>
+        <f t="shared" si="20"/>
+        <v>3.1000000000000036</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="20"/>
-        <v>0.10000000000000007</v>
+        <f t="shared" si="21"/>
+        <v>0.10000000000000012</v>
       </c>
       <c r="S33" s="3">
-        <f t="shared" si="21"/>
-        <v>1.8000000000000014</v>
+        <f t="shared" si="22"/>
+        <v>1.800000000000002</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34">
-        <f t="shared" si="22"/>
-        <v>19</v>
+        <f t="shared" si="23"/>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>19</v>
@@ -4795,57 +4866,58 @@
         <v>1.9</v>
       </c>
       <c r="G34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>49.79</v>
       </c>
       <c r="H34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>33</v>
       </c>
       <c r="I34">
-        <f t="shared" si="15"/>
-        <v>497.9</v>
+        <f t="shared" si="16"/>
+        <v>530.9</v>
       </c>
       <c r="K34">
         <f>(G34*I18-I34*G18)/(H18*G34-H34*G18)</f>
-        <v>0</v>
+        <v>1.0000000000000049</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:L41" si="23">G34/(I34-K34*H34)</f>
-        <v>0.1</v>
+        <f t="shared" ref="L34:L41" si="24">G34/(I34-K34*H34)</f>
+        <v>0.10000000000000003</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N41" si="24">(B34-K34)*L34</f>
-        <v>1.9000000000000001</v>
+        <f t="shared" ref="N34:N41" si="25">(B34-K34)*L34</f>
+        <v>1.9000000000000004</v>
       </c>
       <c r="O34">
-        <f t="shared" ref="O34:O41" si="25">O33+K34</f>
-        <v>2.8140441941080565E-13</v>
+        <f t="shared" ref="O34:O41" si="26">O33+K34</f>
+        <v>32.000000000000384</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" ref="P34:P41" si="26">O34/(H34-1)</f>
-        <v>8.7938881065876766E-15</v>
+        <f t="shared" ref="P34:P41" si="27">O34/(H34-1)</f>
+        <v>1.000000000000012</v>
       </c>
       <c r="Q34">
-        <f t="shared" ref="Q34:Q41" si="27">Q33+L34</f>
-        <v>3.2000000000000024</v>
+        <f t="shared" ref="Q34:Q41" si="28">Q33+L34</f>
+        <v>3.2000000000000037</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" ref="R34:R41" si="28">Q34/(H34-1)</f>
-        <v>0.10000000000000007</v>
+        <f t="shared" ref="R34:R41" si="29">Q34/(H34-1)</f>
+        <v>0.10000000000000012</v>
       </c>
       <c r="S34" s="3">
-        <f t="shared" ref="S34:S41" si="29">(B34-K34)*R34</f>
-        <v>1.9000000000000015</v>
+        <f t="shared" ref="S34:S41" si="30">(B34-K34)*R34</f>
+        <v>1.9000000000000019</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35">
-        <f t="shared" si="22"/>
-        <v>17</v>
+        <f t="shared" si="23"/>
+        <v>18</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>17</v>
@@ -4854,57 +4926,58 @@
         <v>1.7</v>
       </c>
       <c r="G35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>51.49</v>
       </c>
       <c r="H35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="I35">
-        <f t="shared" si="15"/>
-        <v>514.9</v>
+        <f t="shared" si="16"/>
+        <v>548.9</v>
       </c>
       <c r="K35">
         <f>(G35*I18-I35*G18)/(H18*G35-H35*G18)</f>
-        <v>0</v>
+        <v>0.99999999999999556</v>
       </c>
       <c r="L35">
-        <f t="shared" si="23"/>
-        <v>0.1</v>
+        <f t="shared" si="24"/>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="N35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.7000000000000002</v>
       </c>
       <c r="O35">
-        <f t="shared" si="25"/>
-        <v>2.8140441941080565E-13</v>
+        <f t="shared" si="26"/>
+        <v>33.000000000000377</v>
       </c>
       <c r="P35" s="2">
-        <f t="shared" si="26"/>
-        <v>8.5274066488122919E-15</v>
+        <f t="shared" si="27"/>
+        <v>1.0000000000000113</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="27"/>
-        <v>3.3000000000000025</v>
+        <f t="shared" si="28"/>
+        <v>3.3000000000000038</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="28"/>
-        <v>0.10000000000000007</v>
+        <f t="shared" si="29"/>
+        <v>0.10000000000000012</v>
       </c>
       <c r="S35" s="3">
-        <f t="shared" si="29"/>
-        <v>1.7000000000000013</v>
+        <f t="shared" si="30"/>
+        <v>1.7000000000000024</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36">
-        <f t="shared" si="22"/>
-        <v>18</v>
+        <f t="shared" si="23"/>
+        <v>19</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>18</v>
@@ -4913,57 +4986,58 @@
         <v>1.8</v>
       </c>
       <c r="G36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>53.29</v>
       </c>
       <c r="H36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="I36">
-        <f t="shared" si="15"/>
-        <v>532.9</v>
+        <f t="shared" si="16"/>
+        <v>567.9</v>
       </c>
       <c r="K36">
         <f>(G36*I19-I36*G19)/(H19*G36-H36*G19)</f>
-        <v>0</v>
+        <v>0.99999999999998623</v>
       </c>
       <c r="L36">
-        <f t="shared" si="23"/>
-        <v>0.1</v>
+        <f t="shared" si="24"/>
+        <v>9.9999999999999922E-2</v>
       </c>
       <c r="N36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.8</v>
       </c>
       <c r="O36">
-        <f t="shared" si="25"/>
-        <v>2.8140441941080565E-13</v>
+        <f t="shared" si="26"/>
+        <v>34.000000000000362</v>
       </c>
       <c r="P36" s="2">
-        <f t="shared" si="26"/>
-        <v>8.2766005709060481E-15</v>
+        <f t="shared" si="27"/>
+        <v>1.0000000000000107</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="27"/>
-        <v>3.4000000000000026</v>
+        <f t="shared" si="28"/>
+        <v>3.4000000000000039</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="28"/>
-        <v>0.10000000000000007</v>
+        <f t="shared" si="29"/>
+        <v>0.10000000000000012</v>
       </c>
       <c r="S36" s="3">
-        <f t="shared" si="29"/>
-        <v>1.8000000000000014</v>
+        <f t="shared" si="30"/>
+        <v>1.8000000000000036</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37">
-        <f t="shared" si="22"/>
-        <v>17</v>
+        <f t="shared" si="23"/>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>17</v>
@@ -4972,57 +5046,58 @@
         <v>1.7</v>
       </c>
       <c r="G37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>54.99</v>
       </c>
       <c r="H37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="I37">
-        <f t="shared" si="15"/>
-        <v>549.9</v>
+        <f t="shared" si="16"/>
+        <v>585.9</v>
       </c>
       <c r="K37">
         <f>(G37*I19-I37*G19)/(H19*G37-H37*G19)</f>
-        <v>0</v>
+        <v>0.99999999999999245</v>
       </c>
       <c r="L37">
-        <f t="shared" si="23"/>
-        <v>0.1</v>
+        <f t="shared" si="24"/>
+        <v>9.9999999999999964E-2</v>
       </c>
       <c r="N37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.7000000000000002</v>
       </c>
       <c r="O37">
-        <f t="shared" si="25"/>
-        <v>2.8140441941080565E-13</v>
+        <f t="shared" si="26"/>
+        <v>35.000000000000355</v>
       </c>
       <c r="P37" s="2">
-        <f t="shared" si="26"/>
-        <v>8.0401262688801621E-15</v>
+        <f t="shared" si="27"/>
+        <v>1.0000000000000102</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="27"/>
-        <v>3.5000000000000027</v>
+        <f t="shared" si="28"/>
+        <v>3.500000000000004</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="28"/>
-        <v>0.10000000000000007</v>
+        <f t="shared" si="29"/>
+        <v>0.10000000000000012</v>
       </c>
       <c r="S37" s="3">
-        <f t="shared" si="29"/>
-        <v>1.7000000000000013</v>
+        <f t="shared" si="30"/>
+        <v>1.7000000000000026</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38">
-        <f t="shared" si="22"/>
-        <v>19</v>
+        <f t="shared" si="23"/>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>19</v>
@@ -5031,57 +5106,58 @@
         <v>1.9</v>
       </c>
       <c r="G38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>56.89</v>
       </c>
       <c r="H38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="I38">
-        <f t="shared" si="15"/>
-        <v>568.9</v>
+        <f t="shared" si="16"/>
+        <v>605.9</v>
       </c>
       <c r="K38">
         <f>(G38*I20-I38*G20)/(H20*G38-H38*G20)</f>
-        <v>0</v>
+        <v>1.0000000000000033</v>
       </c>
       <c r="L38">
-        <f t="shared" si="23"/>
-        <v>0.1</v>
+        <f t="shared" si="24"/>
+        <v>0.10000000000000002</v>
       </c>
       <c r="N38">
-        <f t="shared" si="24"/>
-        <v>1.9000000000000001</v>
+        <f t="shared" si="25"/>
+        <v>1.9</v>
       </c>
       <c r="O38">
-        <f t="shared" si="25"/>
-        <v>2.8140441941080565E-13</v>
+        <f t="shared" si="26"/>
+        <v>36.000000000000355</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="26"/>
-        <v>7.8167894280779347E-15</v>
+        <f t="shared" si="27"/>
+        <v>1.0000000000000098</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="27"/>
-        <v>3.6000000000000028</v>
+        <f t="shared" si="28"/>
+        <v>3.6000000000000041</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="28"/>
-        <v>0.10000000000000007</v>
+        <f t="shared" si="29"/>
+        <v>0.10000000000000012</v>
       </c>
       <c r="S38" s="3">
-        <f t="shared" si="29"/>
-        <v>1.9000000000000015</v>
+        <f t="shared" si="30"/>
+        <v>1.9000000000000019</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39">
-        <f t="shared" si="22"/>
-        <v>17</v>
+        <f t="shared" si="23"/>
+        <v>18</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>17</v>
@@ -5090,57 +5166,58 @@
         <v>1.7</v>
       </c>
       <c r="G39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>58.59</v>
       </c>
       <c r="H39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="I39">
-        <f t="shared" si="15"/>
-        <v>585.9</v>
+        <f t="shared" si="16"/>
+        <v>623.9</v>
       </c>
       <c r="K39">
         <f>(G39*I20-I39*G20)/(H20*G39-H39*G20)</f>
-        <v>1.6944475114539862E-14</v>
+        <v>1.0000000000000191</v>
       </c>
       <c r="L39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.10000000000000013</v>
       </c>
       <c r="N39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.7000000000000004</v>
       </c>
       <c r="O39">
-        <f t="shared" si="25"/>
-        <v>2.9834889452534551E-13</v>
+        <f t="shared" si="26"/>
+        <v>37.000000000000377</v>
       </c>
       <c r="P39" s="2">
-        <f t="shared" si="26"/>
-        <v>8.0634836358201495E-15</v>
+        <f t="shared" si="27"/>
+        <v>1.0000000000000102</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="27"/>
-        <v>3.7000000000000028</v>
+        <f t="shared" si="28"/>
+        <v>3.7000000000000042</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="28"/>
-        <v>0.10000000000000007</v>
+        <f t="shared" si="29"/>
+        <v>0.10000000000000012</v>
       </c>
       <c r="S39" s="3">
-        <f t="shared" si="29"/>
-        <v>1.6999999999999995</v>
+        <f t="shared" si="30"/>
+        <v>1.7000000000000002</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40">
-        <f t="shared" si="22"/>
-        <v>16</v>
+        <f t="shared" si="23"/>
+        <v>17</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>16</v>
@@ -5149,57 +5226,58 @@
         <v>1.6</v>
       </c>
       <c r="G40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>60.190000000000005</v>
       </c>
       <c r="H40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
       <c r="I40">
-        <f t="shared" si="15"/>
-        <v>601.9</v>
+        <f t="shared" si="16"/>
+        <v>640.9</v>
       </c>
       <c r="K40">
         <f>(G40*I21-I40*G21)/(H21*G40-H40*G21)</f>
-        <v>3.4591412067050513E-14</v>
+        <v>1.0000000000000151</v>
       </c>
       <c r="L40">
-        <f t="shared" si="23"/>
-        <v>0.10000000000000024</v>
+        <f t="shared" si="24"/>
+        <v>0.1000000000000001</v>
       </c>
       <c r="N40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="26"/>
+        <v>38.000000000000391</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="27"/>
+        <v>1.0000000000000102</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="28"/>
+        <v>3.8000000000000043</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" si="29"/>
+        <v>0.10000000000000012</v>
+      </c>
+      <c r="S40" s="3">
+        <f t="shared" si="30"/>
         <v>1.6000000000000005</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="25"/>
-        <v>3.3294030659239604E-13</v>
-      </c>
-      <c r="P40" s="2">
-        <f t="shared" si="26"/>
-        <v>8.76158701558937E-15</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="27"/>
-        <v>3.8000000000000029</v>
-      </c>
-      <c r="R40" s="2">
-        <f t="shared" si="28"/>
-        <v>0.10000000000000007</v>
-      </c>
-      <c r="S40" s="3">
-        <f t="shared" si="29"/>
-        <v>1.5999999999999979</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41">
-        <f t="shared" si="22"/>
-        <v>15</v>
+        <f t="shared" si="23"/>
+        <v>16</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>15</v>
@@ -5208,48 +5286,48 @@
         <v>1.5</v>
       </c>
       <c r="G41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>61.690000000000005</v>
       </c>
       <c r="H41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="I41">
-        <f t="shared" si="15"/>
-        <v>616.9</v>
+        <f t="shared" si="16"/>
+        <v>656.9</v>
       </c>
       <c r="K41">
         <f>(G41*I21-I41*G21)/(H21*G41-H41*G21)</f>
-        <v>3.3999801935436498E-14</v>
+        <v>0.99999999999999789</v>
       </c>
       <c r="L41">
-        <f t="shared" si="23"/>
-        <v>0.10000000000000023</v>
+        <f t="shared" si="24"/>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="N41">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.5</v>
       </c>
       <c r="O41">
-        <f t="shared" si="25"/>
-        <v>3.6694010852783257E-13</v>
+        <f t="shared" si="26"/>
+        <v>39.000000000000391</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" si="26"/>
-        <v>9.408720731482886E-15</v>
+        <f t="shared" si="27"/>
+        <v>1.00000000000001</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="27"/>
-        <v>3.900000000000003</v>
+        <f t="shared" si="28"/>
+        <v>3.9000000000000044</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="28"/>
-        <v>0.10000000000000007</v>
+        <f t="shared" si="29"/>
+        <v>0.10000000000000012</v>
       </c>
       <c r="S41" s="3">
-        <f t="shared" si="29"/>
-        <v>1.4999999999999978</v>
+        <f t="shared" si="30"/>
+        <v>1.500000000000002</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
@@ -5267,7 +5345,7 @@
   <dimension ref="B1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C41"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5326,10 +5404,10 @@
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2">
         <f t="shared" ref="B2:B41" si="0">C2+D2</f>
-        <v>-101</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>-111</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -5346,16 +5424,17 @@
       </c>
       <c r="I2">
         <f>B2</f>
-        <v>-101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>-111</v>
+        <f>C2</f>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -5372,48 +5451,49 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I41" si="2">I2+B3</f>
-        <v>-201</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K6" si="3">(G3*I2-I3*G2)/(H2*G3-H3*G2)</f>
-        <v>-111.00000000000013</v>
+        <v>1.0000000000000133</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L41" si="4">G3/(I3-K3*H3)</f>
-        <v>9.9999999999998784E-2</v>
+        <v>0.10000000000000014</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N7" si="5">(B3-K3)*L3</f>
-        <v>1.0999999999999994</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O3">
         <f>K3</f>
-        <v>-111.00000000000013</v>
+        <v>1.0000000000000133</v>
       </c>
       <c r="P3" s="2">
         <f>O3</f>
-        <v>-111.00000000000013</v>
+        <v>1.0000000000000133</v>
       </c>
       <c r="Q3">
         <f>L3</f>
-        <v>9.9999999999998784E-2</v>
+        <v>0.10000000000000014</v>
       </c>
       <c r="R3" s="2">
         <f>Q3</f>
-        <v>9.9999999999998784E-2</v>
+        <v>0.10000000000000014</v>
       </c>
       <c r="S3" s="3">
         <f>(B3-K3)*R3</f>
-        <v>1.0999999999999994</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>-99</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>-111</v>
+        <f t="shared" ref="C4:C41" si="6">C3</f>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -5430,48 +5510,49 @@
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>-300</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
-        <v>-111.00000000000024</v>
+        <v>0.99999999999994671</v>
       </c>
       <c r="L4">
         <f t="shared" si="4"/>
-        <v>9.9999999999997757E-2</v>
+        <v>9.999999999999952E-2</v>
       </c>
       <c r="N4">
         <f t="shared" si="5"/>
-        <v>1.1999999999999973</v>
+        <v>1.1999999999999995</v>
       </c>
       <c r="O4">
         <f>O3+K4</f>
-        <v>-222.00000000000037</v>
+        <v>1.99999999999996</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" ref="P4:P7" si="6">O4/(H4-1)</f>
-        <v>-111.00000000000018</v>
+        <f t="shared" ref="P4:P7" si="7">O4/(H4-1)</f>
+        <v>0.99999999999998002</v>
       </c>
       <c r="Q4">
         <f>Q3+L4</f>
-        <v>0.19999999999999654</v>
+        <v>0.19999999999999968</v>
       </c>
       <c r="R4" s="2">
         <f>Q4/(H4-1)</f>
-        <v>9.9999999999998271E-2</v>
+        <v>9.9999999999999839E-2</v>
       </c>
       <c r="S4" s="3">
         <f>(B4-K4)*R4</f>
-        <v>1.2000000000000035</v>
+        <v>1.2000000000000033</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>-98</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>13</v>
@@ -5488,48 +5569,49 @@
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>-398</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
-        <v>-111.0000000000003</v>
+        <v>0.99999999999999112</v>
       </c>
       <c r="L5">
         <f t="shared" si="4"/>
-        <v>9.9999999999997397E-2</v>
+        <v>9.9999999999999908E-2</v>
       </c>
       <c r="N5">
         <f t="shared" si="5"/>
-        <v>1.299999999999996</v>
+        <v>1.2999999999999996</v>
       </c>
       <c r="O5">
         <f>O4+K5</f>
-        <v>-333.00000000000068</v>
+        <v>2.9999999999999512</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="6"/>
-        <v>-111.00000000000023</v>
+        <f t="shared" si="7"/>
+        <v>0.99999999999998368</v>
       </c>
       <c r="Q5">
         <f>Q4+L5</f>
-        <v>0.29999999999999394</v>
+        <v>0.2999999999999996</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" ref="R5:R7" si="7">Q5/(H5-1)</f>
-        <v>9.9999999999997979E-2</v>
+        <f t="shared" ref="R5:R7" si="8">Q5/(H5-1)</f>
+        <v>9.9999999999999867E-2</v>
       </c>
       <c r="S5" s="3">
         <f>(B5-K5)*R5</f>
-        <v>1.3000000000000036</v>
+        <v>1.2999999999999992</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>-97.5</v>
+        <v>14.5</v>
       </c>
       <c r="C6">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>13.5</v>
@@ -5546,48 +5628,49 @@
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>-495.5</v>
+        <v>64.5</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
-        <v>-111.00000000000063</v>
+        <v>0.99999999999994671</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>9.9999999999994635E-2</v>
+        <v>9.9999999999999534E-2</v>
       </c>
       <c r="N6">
         <f t="shared" si="5"/>
-        <v>1.3499999999999901</v>
+        <v>1.349999999999999</v>
       </c>
       <c r="O6">
         <f>O5+K6</f>
-        <v>-444.00000000000131</v>
+        <v>3.9999999999998979</v>
       </c>
       <c r="P6">
-        <f t="shared" si="6"/>
-        <v>-111.00000000000033</v>
+        <f t="shared" si="7"/>
+        <v>0.99999999999997446</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q7" si="8">Q5+L6</f>
-        <v>0.39999999999998859</v>
+        <f t="shared" ref="Q6:Q7" si="9">Q5+L6</f>
+        <v>0.39999999999999913</v>
       </c>
       <c r="R6">
-        <f t="shared" si="7"/>
-        <v>9.9999999999997147E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.9999999999999784E-2</v>
       </c>
       <c r="S6">
         <f>(B6-K6)*R6</f>
-        <v>1.3500000000000241</v>
+        <v>1.3500000000000023</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>-99</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -5604,48 +5687,49 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>-594.5</v>
+        <v>77.5</v>
       </c>
       <c r="K7">
         <f>(G7*I2-I7*G2)/(H2*G7-H7*G2)</f>
-        <v>-111.00000000000003</v>
+        <v>0.99999999999999301</v>
       </c>
       <c r="L7">
         <f t="shared" si="4"/>
-        <v>9.9999999999999672E-2</v>
+        <v>9.9999999999999936E-2</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
-        <v>1.1999999999999988</v>
+        <v>1.2</v>
       </c>
       <c r="O7">
         <f>O6+K7</f>
-        <v>-555.00000000000136</v>
+        <v>4.9999999999998908</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" si="6"/>
-        <v>-111.00000000000027</v>
+        <f t="shared" si="7"/>
+        <v>0.99999999999997813</v>
       </c>
       <c r="Q7">
+        <f t="shared" si="9"/>
+        <v>0.49999999999999906</v>
+      </c>
+      <c r="R7" s="2">
         <f t="shared" si="8"/>
-        <v>0.49999999999998823</v>
-      </c>
-      <c r="R7" s="2">
-        <f t="shared" si="7"/>
-        <v>9.9999999999997646E-2</v>
+        <v>9.9999999999999811E-2</v>
       </c>
       <c r="S7" s="3">
-        <f t="shared" ref="S7" si="9">(B7-K7)*R7</f>
-        <v>1.1999999999999746</v>
+        <f t="shared" ref="S7" si="10">(B7-K7)*R7</f>
+        <v>1.1999999999999984</v>
       </c>
     </row>
     <row r="8" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>-98.5</v>
+        <v>13.5</v>
       </c>
       <c r="C8">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>12.5</v>
@@ -5662,48 +5746,49 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="2"/>
-        <v>-693</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1">
         <f>(G8*I3-I8*G3)/(H3*G8-H8*G3)</f>
-        <v>-111.00000000000006</v>
+        <v>0.99999999999998557</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="4"/>
-        <v>9.9999999999999437E-2</v>
+        <v>9.9999999999999867E-2</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" ref="N8:N41" si="10">(B8-K8)*L8</f>
-        <v>1.2499999999999987</v>
+        <f t="shared" ref="N8:N41" si="11">(B8-K8)*L8</f>
+        <v>1.2499999999999998</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" ref="O8:O41" si="11">O7+K8</f>
-        <v>-666.00000000000136</v>
+        <f t="shared" ref="O8:O41" si="12">O7+K8</f>
+        <v>5.9999999999998765</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" ref="P8:P41" si="12">O8/(H8-1)</f>
-        <v>-111.00000000000023</v>
+        <f t="shared" ref="P8:P41" si="13">O8/(H8-1)</f>
+        <v>0.99999999999997946</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" ref="Q8:Q41" si="13">Q7+L8</f>
-        <v>0.59999999999998765</v>
+        <f t="shared" ref="Q8:Q41" si="14">Q7+L8</f>
+        <v>0.59999999999999898</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" ref="R8:R41" si="14">Q8/(H8-1)</f>
-        <v>9.9999999999997938E-2</v>
+        <f t="shared" ref="R8:R41" si="15">Q8/(H8-1)</f>
+        <v>9.9999999999999825E-2</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" ref="S8:S41" si="15">(B8-K8)*R8</f>
-        <v>1.24999999999998</v>
+        <f t="shared" ref="S8:S41" si="16">(B8-K8)*R8</f>
+        <v>1.2499999999999993</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>-98.4</v>
+        <v>13.6</v>
       </c>
       <c r="C9">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>12.6</v>
@@ -5720,48 +5805,49 @@
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>-791.4</v>
+        <v>104.6</v>
       </c>
       <c r="K9">
         <f>(G9*I4-I9*G4)/(H4*G9-H9*G4)</f>
-        <v>-110.99999999999994</v>
+        <v>0.99999999999999445</v>
       </c>
       <c r="L9">
         <f t="shared" si="4"/>
-        <v>0.10000000000000044</v>
+        <v>9.999999999999995E-2</v>
       </c>
       <c r="N9">
-        <f t="shared" si="10"/>
-        <v>1.2599999999999993</v>
+        <f t="shared" si="11"/>
+        <v>1.2599999999999998</v>
       </c>
       <c r="O9">
-        <f t="shared" si="11"/>
-        <v>-777.00000000000136</v>
+        <f t="shared" si="12"/>
+        <v>6.9999999999998712</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.0000000000002</v>
+        <f t="shared" si="13"/>
+        <v>0.99999999999998157</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="13"/>
-        <v>0.69999999999998808</v>
+        <f t="shared" si="14"/>
+        <v>0.69999999999999896</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999998299E-2</v>
+        <f t="shared" si="15"/>
+        <v>9.9999999999999853E-2</v>
       </c>
       <c r="S9" s="3">
-        <f t="shared" si="15"/>
-        <v>1.2599999999999723</v>
+        <f t="shared" si="16"/>
+        <v>1.2599999999999987</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>-98</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -5779,48 +5865,49 @@
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>-889.4</v>
+        <v>118.6</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10:K41" si="16">(G10*I5-I10*G5)/(H5*G10-H10*G5)</f>
-        <v>-111.00000000000016</v>
+        <f t="shared" ref="K10:K41" si="17">(G10*I5-I10*G5)/(H5*G10-H10*G5)</f>
+        <v>1.0000000000000233</v>
       </c>
       <c r="L10">
         <f t="shared" si="4"/>
-        <v>9.9999999999998729E-2</v>
+        <v>0.10000000000000019</v>
       </c>
       <c r="N10">
-        <f t="shared" si="10"/>
-        <v>1.2999999999999992</v>
+        <f t="shared" si="11"/>
+        <v>1.3</v>
       </c>
       <c r="O10">
-        <f t="shared" si="11"/>
-        <v>-888.00000000000148</v>
+        <f t="shared" si="12"/>
+        <v>7.9999999999998943</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000018</v>
+        <f t="shared" si="13"/>
+        <v>0.99999999999998679</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="13"/>
-        <v>0.79999999999998683</v>
+        <f t="shared" si="14"/>
+        <v>0.79999999999999916</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999998354E-2</v>
+        <f t="shared" si="15"/>
+        <v>9.9999999999999895E-2</v>
       </c>
       <c r="S10" s="3">
-        <f t="shared" si="15"/>
-        <v>1.2999999999999943</v>
+        <f t="shared" si="16"/>
+        <v>1.2999999999999963</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>-97.9</v>
+        <v>14.1</v>
       </c>
       <c r="C11">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>13.1</v>
@@ -5833,53 +5920,54 @@
         <v>12.27</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H41" si="17">H10+1</f>
+        <f t="shared" ref="H11:H41" si="18">H10+1</f>
         <v>10</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>-987.3</v>
+        <v>132.69999999999999</v>
       </c>
       <c r="K11">
+        <f t="shared" si="17"/>
+        <v>1.0000000000000731</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>0.1000000000000006</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="11"/>
+        <v>1.3100000000000005</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="12"/>
+        <v>8.999999999999968</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="13"/>
+        <v>0.99999999999999645</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="14"/>
+        <v>0.8999999999999998</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="15"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="S11" s="3">
         <f t="shared" si="16"/>
-        <v>-111.0000000000006</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="4"/>
-        <v>9.9999999999995148E-2</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="10"/>
-        <v>1.3099999999999956</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="11"/>
-        <v>-999.00000000000205</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000023</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="13"/>
-        <v>0.89999999999998193</v>
-      </c>
-      <c r="R11" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999997993E-2</v>
-      </c>
-      <c r="S11" s="3">
-        <f t="shared" si="15"/>
-        <v>1.3100000000000329</v>
+        <v>1.3099999999999923</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>-98</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>13</v>
@@ -5892,53 +5980,54 @@
         <v>13.57</v>
       </c>
       <c r="H12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>-1085.3</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="K12">
+        <f t="shared" si="17"/>
+        <v>1.0000000000000717</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>0.1000000000000006</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="11"/>
+        <v>1.3000000000000007</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="12"/>
+        <v>10.000000000000039</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="13"/>
+        <v>1.000000000000004</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="14"/>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000005</v>
+      </c>
+      <c r="S12" s="3">
         <f t="shared" si="16"/>
-        <v>-110.99999999999969</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000248</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="10"/>
-        <v>1.3000000000000009</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="11"/>
-        <v>-1110.0000000000018</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000018</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="13"/>
-        <v>0.99999999999998446</v>
-      </c>
-      <c r="R12" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999998451E-2</v>
-      </c>
-      <c r="S12" s="3">
-        <f t="shared" si="15"/>
-        <v>1.2999999999999485</v>
+        <v>1.2999999999999936</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>-97</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>14</v>
@@ -5951,53 +6040,54 @@
         <v>14.97</v>
       </c>
       <c r="H13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>-1182.3</v>
+        <v>161.69999999999999</v>
       </c>
       <c r="K13">
+        <f t="shared" si="17"/>
+        <v>1.0000000000000535</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000045</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="11"/>
+        <v>1.400000000000001</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="12"/>
+        <v>11.000000000000092</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000084</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="14"/>
+        <v>1.100000000000001</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="S13" s="3">
         <f t="shared" si="16"/>
-        <v>-111.00000000000011</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999062E-2</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="10"/>
-        <v>1.3999999999999981</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="11"/>
-        <v>-1221.0000000000018</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000017</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="13"/>
-        <v>1.0999999999999834</v>
-      </c>
-      <c r="R13" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999998493E-2</v>
-      </c>
-      <c r="S13" s="3">
-        <f t="shared" si="15"/>
-        <v>1.3999999999999904</v>
+        <v>1.3999999999999959</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>-96</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>15</v>
@@ -6010,53 +6100,54 @@
         <v>16.47</v>
       </c>
       <c r="H14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>-1278.3</v>
+        <v>177.7</v>
       </c>
       <c r="K14">
+        <f t="shared" si="17"/>
+        <v>1.0000000000000091</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000007</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="11"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="12"/>
+        <v>12.000000000000101</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000084</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="14"/>
+        <v>1.2000000000000011</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="S14" s="3">
         <f t="shared" si="16"/>
-        <v>-111.0000000000001</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999131E-2</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="10"/>
-        <v>1.4999999999999969</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="11"/>
-        <v>-1332.0000000000018</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000016</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="13"/>
-        <v>1.1999999999999826</v>
-      </c>
-      <c r="R14" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999998548E-2</v>
-      </c>
-      <c r="S14" s="3">
-        <f t="shared" si="15"/>
-        <v>1.4999999999999882</v>
+        <v>1.5000000000000004</v>
       </c>
     </row>
     <row r="15" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>-96</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <v>15</v>
@@ -6069,53 +6160,54 @@
         <v>17.97</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="2"/>
-        <v>-1374.3</v>
+        <v>193.7</v>
       </c>
       <c r="K15" s="1">
+        <f t="shared" si="17"/>
+        <v>0.99999999999999656</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999964E-2</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="11"/>
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="12"/>
+        <v>13.000000000000098</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000075</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="14"/>
+        <v>1.3000000000000009</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000007</v>
+      </c>
+      <c r="S15" s="1">
         <f t="shared" si="16"/>
-        <v>-111.00000000000017</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="4"/>
-        <v>9.9999999999998701E-2</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="10"/>
-        <v>1.4999999999999976</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="11"/>
-        <v>-1443.000000000002</v>
-      </c>
-      <c r="P15" s="1">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000016</v>
-      </c>
-      <c r="Q15" s="1">
-        <f t="shared" si="13"/>
-        <v>1.2999999999999814</v>
-      </c>
-      <c r="R15" s="1">
-        <f t="shared" si="14"/>
-        <v>9.9999999999998562E-2</v>
-      </c>
-      <c r="S15" s="1">
-        <f t="shared" si="15"/>
-        <v>1.4999999999999956</v>
+        <v>1.5000000000000016</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>-96</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -6128,53 +6220,54 @@
         <v>19.47</v>
       </c>
       <c r="H16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>-1470.3</v>
+        <v>209.7</v>
       </c>
       <c r="K16">
+        <f t="shared" si="17"/>
+        <v>0.99999999999996536</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999742E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="11"/>
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="12"/>
+        <v>14.000000000000064</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000047</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="14"/>
+        <v>1.4000000000000006</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000005</v>
+      </c>
+      <c r="S16" s="3">
         <f t="shared" si="16"/>
-        <v>-111.00000000000007</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999381E-2</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="10"/>
-        <v>1.4999999999999978</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="11"/>
-        <v>-1554.000000000002</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000014</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="13"/>
-        <v>1.3999999999999808</v>
-      </c>
-      <c r="R16" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999998632E-2</v>
-      </c>
-      <c r="S16" s="3">
-        <f t="shared" si="15"/>
-        <v>1.4999999999999867</v>
+        <v>1.5000000000000042</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>-95</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -6187,53 +6280,54 @@
         <v>21.07</v>
       </c>
       <c r="H17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>-1565.3</v>
+        <v>226.7</v>
       </c>
       <c r="K17">
+        <f t="shared" si="17"/>
+        <v>0.9999999999999748</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999811E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="11"/>
+        <v>1.5999999999999994</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="12"/>
+        <v>15.000000000000039</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000027</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="14"/>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="S17" s="3">
         <f t="shared" si="16"/>
-        <v>-111.00000000000006</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999548E-2</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="10"/>
-        <v>1.5999999999999985</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="11"/>
-        <v>-1665.000000000002</v>
-      </c>
-      <c r="P17" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000014</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="13"/>
-        <v>1.4999999999999805</v>
-      </c>
-      <c r="R17" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999998701E-2</v>
-      </c>
-      <c r="S17" s="3">
-        <f t="shared" si="15"/>
-        <v>1.599999999999985</v>
+        <v>1.600000000000003</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>-94</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -6246,53 +6340,54 @@
         <v>22.77</v>
       </c>
       <c r="H18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>-1659.3</v>
+        <v>244.7</v>
       </c>
       <c r="K18">
+        <f t="shared" si="17"/>
+        <v>0.9999999999999758</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999825E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="11"/>
+        <v>1.6999999999999995</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="12"/>
+        <v>16.000000000000014</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000009</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="14"/>
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="S18" s="3">
         <f t="shared" si="16"/>
-        <v>-110.9999999999998</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000148</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="10"/>
-        <v>1.7000000000000053</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="11"/>
-        <v>-1776.0000000000018</v>
-      </c>
-      <c r="P18" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000011</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="13"/>
-        <v>1.5999999999999819</v>
-      </c>
-      <c r="R18" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999998868E-2</v>
-      </c>
-      <c r="S18" s="3">
-        <f t="shared" si="15"/>
-        <v>1.6999999999999609</v>
+        <v>1.7000000000000028</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>-93</v>
+        <v>19</v>
       </c>
       <c r="C19">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -6305,53 +6400,54 @@
         <v>24.57</v>
       </c>
       <c r="H19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>-1752.3</v>
+        <v>263.7</v>
       </c>
       <c r="K19">
+        <f t="shared" si="17"/>
+        <v>1.0000000000000298</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000023</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="11"/>
+        <v>1.8000000000000012</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="12"/>
+        <v>17.000000000000043</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000024</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="14"/>
+        <v>1.7000000000000006</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="S19" s="3">
         <f t="shared" si="16"/>
-        <v>-110.99999999999982</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000137</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="10"/>
-        <v>1.800000000000006</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="11"/>
-        <v>-1887.0000000000016</v>
-      </c>
-      <c r="P19" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.0000000000001</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="13"/>
-        <v>1.6999999999999833</v>
-      </c>
-      <c r="R19" s="2">
-        <f t="shared" si="14"/>
-        <v>9.999999999999902E-2</v>
-      </c>
-      <c r="S19" s="3">
-        <f t="shared" si="15"/>
-        <v>1.7999999999999639</v>
+        <v>1.7999999999999978</v>
       </c>
     </row>
     <row r="20" spans="2:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
-        <v>-92</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
         <v>19</v>
@@ -6364,53 +6460,54 @@
         <v>26.47</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="2"/>
-        <v>-1844.3</v>
+        <v>283.7</v>
       </c>
       <c r="K20" s="1">
+        <f t="shared" si="17"/>
+        <v>1.0000000000000175</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000013</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="11"/>
+        <v>1.9000000000000008</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="12"/>
+        <v>18.00000000000006</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000033</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="14"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="S20" s="1">
         <f t="shared" si="16"/>
-        <v>-110.99999999999991</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000067</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="10"/>
-        <v>1.9000000000000041</v>
-      </c>
-      <c r="O20" s="1">
-        <f t="shared" si="11"/>
-        <v>-1998.0000000000016</v>
-      </c>
-      <c r="P20" s="1">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000009</v>
-      </c>
-      <c r="Q20" s="1">
-        <f t="shared" si="13"/>
-        <v>1.7999999999999841</v>
-      </c>
-      <c r="R20" s="1">
-        <f t="shared" si="14"/>
-        <v>9.9999999999999117E-2</v>
-      </c>
-      <c r="S20" s="1">
-        <f t="shared" si="15"/>
-        <v>1.8999999999999746</v>
+        <v>1.8999999999999988</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>-94</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>17</v>
@@ -6423,53 +6520,54 @@
         <v>28.169999999999998</v>
       </c>
       <c r="H21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>-1938.3</v>
+        <v>301.7</v>
       </c>
       <c r="K21">
+        <f t="shared" si="17"/>
+        <v>0.99999999999998967</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="11"/>
+        <v>1.6999999999999997</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="12"/>
+        <v>19.00000000000005</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000027</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="14"/>
+        <v>1.9000000000000006</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="S21" s="3">
         <f t="shared" si="16"/>
-        <v>-111.00000000000011</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999173E-2</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="10"/>
-        <v>1.6999999999999973</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="11"/>
-        <v>-2109.0000000000018</v>
-      </c>
-      <c r="P21" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.0000000000001</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="13"/>
-        <v>1.8999999999999833</v>
-      </c>
-      <c r="R21" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999999117E-2</v>
-      </c>
-      <c r="S21" s="3">
-        <f t="shared" si="15"/>
-        <v>1.6999999999999964</v>
+        <v>1.7000000000000017</v>
       </c>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>-93</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>18</v>
@@ -6482,53 +6580,54 @@
         <v>29.97</v>
       </c>
       <c r="H22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>-2031.3</v>
+        <v>320.7</v>
       </c>
       <c r="K22">
+        <f t="shared" si="17"/>
+        <v>1.0000000000000062</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="11"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="12"/>
+        <v>20.000000000000057</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000029</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="14"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="S22" s="3">
         <f t="shared" si="16"/>
-        <v>-111.00000000000001</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999825E-2</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="10"/>
-        <v>1.7999999999999983</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="11"/>
-        <v>-2220.0000000000018</v>
-      </c>
-      <c r="P22" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000009</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="13"/>
-        <v>1.9999999999999831</v>
-      </c>
-      <c r="R22" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999999159E-2</v>
-      </c>
-      <c r="S22" s="3">
-        <f t="shared" si="15"/>
-        <v>1.7999999999999863</v>
+        <v>1.7999999999999996</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>-94</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>17</v>
@@ -6541,53 +6640,54 @@
         <v>31.669999999999998</v>
       </c>
       <c r="H23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>-2125.3000000000002</v>
+        <v>338.7</v>
       </c>
       <c r="K23">
+        <f t="shared" si="17"/>
+        <v>0.99999999999999545</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999964E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="11"/>
+        <v>1.6999999999999997</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="12"/>
+        <v>21.000000000000053</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000024</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="14"/>
+        <v>2.1000000000000005</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="S23" s="3">
         <f t="shared" si="16"/>
-        <v>-110.99999999999976</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000177</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="10"/>
-        <v>1.700000000000006</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="11"/>
-        <v>-2331.0000000000014</v>
-      </c>
-      <c r="P23" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000007</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="13"/>
-        <v>2.099999999999985</v>
-      </c>
-      <c r="R23" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999999284E-2</v>
-      </c>
-      <c r="S23" s="3">
-        <f t="shared" si="15"/>
-        <v>1.6999999999999638</v>
+        <v>1.7000000000000006</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>-92</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>19</v>
@@ -6600,53 +6700,54 @@
         <v>33.57</v>
       </c>
       <c r="H24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>-2217.3000000000002</v>
+        <v>358.7</v>
       </c>
       <c r="K24">
+        <f t="shared" si="17"/>
+        <v>0.99999999999999134</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="11"/>
+        <v>1.8999999999999997</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="12"/>
+        <v>22.000000000000046</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="13"/>
+        <v>1.000000000000002</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="14"/>
+        <v>2.2000000000000006</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="S24" s="3">
         <f t="shared" si="16"/>
-        <v>-110.99999999999991</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="4"/>
-        <v>0.1000000000000006</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="10"/>
-        <v>1.900000000000003</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="11"/>
-        <v>-2442.0000000000014</v>
-      </c>
-      <c r="P24" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000006</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="13"/>
-        <v>2.1999999999999855</v>
-      </c>
-      <c r="R24" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999999339E-2</v>
-      </c>
-      <c r="S24" s="3">
-        <f t="shared" si="15"/>
-        <v>1.8999999999999788</v>
+        <v>1.9000000000000012</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>-94</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>17</v>
@@ -6659,53 +6760,54 @@
         <v>35.270000000000003</v>
       </c>
       <c r="H25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>-2311.3000000000002</v>
+        <v>376.7</v>
       </c>
       <c r="K25">
+        <f t="shared" si="17"/>
+        <v>1.0000000000000064</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000006</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="11"/>
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="12"/>
+        <v>23.000000000000053</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000022</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="14"/>
+        <v>2.3000000000000007</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="S25" s="3">
         <f t="shared" si="16"/>
-        <v>-110.99999999999952</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000342</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="10"/>
-        <v>1.7000000000000097</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="11"/>
-        <v>-2553.0000000000009</v>
-      </c>
-      <c r="P25" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000004</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="13"/>
-        <v>2.2999999999999892</v>
-      </c>
-      <c r="R25" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999999534E-2</v>
-      </c>
-      <c r="S25" s="3">
-        <f t="shared" si="15"/>
-        <v>1.6999999999999438</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>-95</v>
+        <v>17</v>
       </c>
       <c r="C26">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>16</v>
@@ -6718,53 +6820,54 @@
         <v>36.870000000000005</v>
       </c>
       <c r="H26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>-2406.3000000000002</v>
+        <v>393.7</v>
       </c>
       <c r="K26">
+        <f t="shared" si="17"/>
+        <v>1.0000000000000411</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>0.1000000000000003</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="11"/>
+        <v>1.6000000000000008</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="12"/>
+        <v>24.000000000000096</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="13"/>
+        <v>1.000000000000004</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="14"/>
+        <v>2.4000000000000008</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="S26" s="3">
         <f t="shared" si="16"/>
-        <v>-110.99999999999996</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000031</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="10"/>
-        <v>1.6000000000000008</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="11"/>
-        <v>-2664.0000000000009</v>
-      </c>
-      <c r="P26" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000004</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="13"/>
-        <v>2.3999999999999897</v>
-      </c>
-      <c r="R26" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999999575E-2</v>
-      </c>
-      <c r="S26" s="3">
-        <f t="shared" si="15"/>
-        <v>1.599999999999989</v>
+        <v>1.5999999999999965</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>-96</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>15</v>
@@ -6777,53 +6880,54 @@
         <v>38.370000000000005</v>
       </c>
       <c r="H27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>-2502.3000000000002</v>
+        <v>409.7</v>
       </c>
       <c r="K27">
+        <f t="shared" si="17"/>
+        <v>1.000000000000107</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000074</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="11"/>
+        <v>1.5000000000000004</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="12"/>
+        <v>25.000000000000203</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="13"/>
+        <v>1.000000000000008</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="14"/>
+        <v>2.5000000000000013</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000005</v>
+      </c>
+      <c r="S27" s="3">
         <f t="shared" si="16"/>
-        <v>-111.00000000000037</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="4"/>
-        <v>9.9999999999997577E-2</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="10"/>
-        <v>1.5000000000000007</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="11"/>
-        <v>-2775.0000000000014</v>
-      </c>
-      <c r="P27" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000006</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="13"/>
-        <v>2.4999999999999871</v>
-      </c>
-      <c r="R27" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999999478E-2</v>
-      </c>
-      <c r="S27" s="3">
-        <f t="shared" si="15"/>
-        <v>1.5000000000000291</v>
+        <v>1.49999999999999</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>-96.1</v>
+        <v>15.9</v>
       </c>
       <c r="C28">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>14.9</v>
@@ -6836,53 +6940,54 @@
         <v>39.860000000000007</v>
       </c>
       <c r="H28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27</v>
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>-2598.4</v>
+        <v>425.59999999999997</v>
       </c>
       <c r="K28">
+        <f t="shared" si="17"/>
+        <v>1.000000000000151</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000105</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="11"/>
+        <v>1.4900000000000004</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="12"/>
+        <v>26.000000000000355</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000138</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="14"/>
+        <v>2.6000000000000023</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="S28" s="3">
         <f t="shared" si="16"/>
-        <v>-111.00000000000018</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="4"/>
-        <v>9.9999999999998784E-2</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="10"/>
-        <v>1.4900000000000009</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="11"/>
-        <v>-2886.0000000000014</v>
-      </c>
-      <c r="P28" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000006</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="13"/>
-        <v>2.5999999999999859</v>
-      </c>
-      <c r="R28" s="2">
-        <f t="shared" si="14"/>
-        <v>9.999999999999945E-2</v>
-      </c>
-      <c r="S28" s="3">
-        <f t="shared" si="15"/>
-        <v>1.4900000000000109</v>
+        <v>1.4899999999999862</v>
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>-96.2</v>
+        <v>15.8</v>
       </c>
       <c r="C29">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>14.8</v>
@@ -6895,53 +7000,54 @@
         <v>41.34</v>
       </c>
       <c r="H29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>-2694.6</v>
+        <v>441.4</v>
       </c>
       <c r="K29">
+        <f t="shared" si="17"/>
+        <v>1.0000000000002198</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>0.1000000000000015</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="11"/>
+        <v>1.4800000000000002</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="12"/>
+        <v>27.000000000000576</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000213</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="14"/>
+        <v>2.7000000000000037</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000014</v>
+      </c>
+      <c r="S29" s="3">
         <f t="shared" si="16"/>
-        <v>-111.00000000000179</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="4"/>
-        <v>9.999999999998789E-2</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="10"/>
-        <v>1.4799999999999995</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="11"/>
-        <v>-2997.0000000000032</v>
-      </c>
-      <c r="P29" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000011</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="13"/>
-        <v>2.699999999999974</v>
-      </c>
-      <c r="R29" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999999034E-2</v>
-      </c>
-      <c r="S29" s="3">
-        <f t="shared" si="15"/>
-        <v>1.4800000000001645</v>
+        <v>1.4799999999999802</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>-96</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>15</v>
@@ -6954,53 +7060,54 @@
         <v>42.84</v>
       </c>
       <c r="H30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>29</v>
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>-2790.6</v>
+        <v>457.4</v>
       </c>
       <c r="K30">
+        <f t="shared" si="17"/>
+        <v>0.99999999999997868</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="11"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="12"/>
+        <v>28.000000000000554</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000198</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="14"/>
+        <v>2.8000000000000034</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="15"/>
+        <v>0.10000000000000012</v>
+      </c>
+      <c r="S30" s="3">
         <f t="shared" si="16"/>
-        <v>-111.00000000000276</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="4"/>
-        <v>9.9999999999981298E-2</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="10"/>
-        <v>1.4999999999999951</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="11"/>
-        <v>-3108.0000000000059</v>
-      </c>
-      <c r="P30" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000021</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="13"/>
-        <v>2.7999999999999554</v>
-      </c>
-      <c r="R30" s="2">
-        <f t="shared" si="14"/>
-        <v>9.999999999999841E-2</v>
-      </c>
-      <c r="S30" s="3">
-        <f t="shared" si="15"/>
-        <v>1.5000000000002518</v>
+        <v>1.5000000000000038</v>
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>-95.5</v>
+        <v>16.5</v>
       </c>
       <c r="C31">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>15.5</v>
@@ -7013,53 +7120,54 @@
         <v>44.39</v>
       </c>
       <c r="H31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>-2886.1</v>
+        <v>473.9</v>
       </c>
       <c r="K31">
+        <f t="shared" si="17"/>
+        <v>0.99999999999943934</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>9.9999999999996217E-2</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="11"/>
+        <v>1.5499999999999976</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="12"/>
+        <v>28.999999999999993</v>
+      </c>
+      <c r="P31" s="2">
+        <f t="shared" si="13"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="14"/>
+        <v>2.8999999999999995</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" si="15"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="S31" s="3">
         <f t="shared" si="16"/>
-        <v>-111.00000000000256</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="4"/>
-        <v>9.9999999999982672E-2</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="10"/>
-        <v>1.5499999999999872</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="11"/>
-        <v>-3219.0000000000086</v>
-      </c>
-      <c r="P31" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.0000000000003</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="13"/>
-        <v>2.8999999999999382</v>
-      </c>
-      <c r="R31" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999997868E-2</v>
-      </c>
-      <c r="S31" s="3">
-        <f t="shared" si="15"/>
-        <v>1.5500000000002228</v>
+        <v>1.5500000000000558</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>-94</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>17</v>
@@ -7072,53 +7180,54 @@
         <v>46.09</v>
       </c>
       <c r="H32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>31</v>
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
-        <v>-2980.1</v>
+        <v>491.9</v>
       </c>
       <c r="K32">
+        <f t="shared" si="17"/>
+        <v>0.99999999999989742</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999326E-2</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="11"/>
+        <v>1.6999999999999988</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="12"/>
+        <v>29.99999999999989</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" si="13"/>
+        <v>0.99999999999999634</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="14"/>
+        <v>2.9999999999999987</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="15"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+      <c r="S32" s="3">
         <f t="shared" si="16"/>
-        <v>-111.00000000000216</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="4"/>
-        <v>9.9999999999985489E-2</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="10"/>
-        <v>1.6999999999999693</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="11"/>
-        <v>-3330.0000000000109</v>
-      </c>
-      <c r="P32" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000037</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="13"/>
-        <v>2.9999999999999236</v>
-      </c>
-      <c r="R32" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999997452E-2</v>
-      </c>
-      <c r="S32" s="3">
-        <f t="shared" si="15"/>
-        <v>1.7000000000001727</v>
+        <v>1.7000000000000095</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>-93</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>18</v>
@@ -7131,53 +7240,54 @@
         <v>47.89</v>
       </c>
       <c r="H33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
-        <v>-3073.1</v>
+        <v>510.9</v>
       </c>
       <c r="K33">
+        <f t="shared" si="17"/>
+        <v>0.99999999999992206</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999478E-2</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="11"/>
+        <v>1.7999999999999985</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="12"/>
+        <v>30.999999999999812</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" si="13"/>
+        <v>0.99999999999999389</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="14"/>
+        <v>3.0999999999999983</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="15"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+      <c r="S33" s="3">
         <f t="shared" si="16"/>
-        <v>-111.0000000000007</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="4"/>
-        <v>9.9999999999995329E-2</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="10"/>
-        <v>1.7999999999999856</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="11"/>
-        <v>-3441.0000000000118</v>
-      </c>
-      <c r="P33" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000038</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="13"/>
-        <v>3.0999999999999188</v>
-      </c>
-      <c r="R33" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999997383E-2</v>
-      </c>
-      <c r="S33" s="3">
-        <f t="shared" si="15"/>
-        <v>1.8000000000000225</v>
+        <v>1.8000000000000069</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>-92</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>19</v>
@@ -7190,53 +7300,54 @@
         <v>49.79</v>
       </c>
       <c r="H34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>33</v>
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>-3165.1</v>
+        <v>530.9</v>
       </c>
       <c r="K34">
+        <f t="shared" si="17"/>
+        <v>0.99999999999980993</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>9.9999999999998743E-2</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="11"/>
+        <v>1.8999999999999952</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="12"/>
+        <v>31.999999999999623</v>
+      </c>
+      <c r="P34" s="2">
+        <f t="shared" si="13"/>
+        <v>0.99999999999998823</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="14"/>
+        <v>3.1999999999999971</v>
+      </c>
+      <c r="R34" s="2">
+        <f t="shared" si="15"/>
+        <v>9.9999999999999908E-2</v>
+      </c>
+      <c r="S34" s="3">
         <f t="shared" si="16"/>
-        <v>-110.99999999999983</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000107</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="10"/>
-        <v>1.9000000000000035</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="11"/>
-        <v>-3552.0000000000118</v>
-      </c>
-      <c r="P34" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000037</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="13"/>
-        <v>3.1999999999999198</v>
-      </c>
-      <c r="R34" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999997494E-2</v>
-      </c>
-      <c r="S34" s="3">
-        <f t="shared" si="15"/>
-        <v>1.8999999999999353</v>
+        <v>1.9000000000000175</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>-94</v>
+        <v>18</v>
       </c>
       <c r="C35">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>17</v>
@@ -7249,53 +7360,54 @@
         <v>51.49</v>
       </c>
       <c r="H35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>34</v>
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
-        <v>-3259.1</v>
+        <v>548.9</v>
       </c>
       <c r="K35">
+        <f t="shared" si="17"/>
+        <v>0.99999999999994416</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999631E-2</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="11"/>
+        <v>1.6999999999999995</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="12"/>
+        <v>32.999999999999567</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="13"/>
+        <v>0.9999999999999869</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="14"/>
+        <v>3.2999999999999967</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" si="15"/>
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="S35" s="3">
         <f t="shared" si="16"/>
-        <v>-111.00000000000026</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="4"/>
-        <v>9.9999999999998312E-2</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="10"/>
-        <v>1.6999999999999968</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="11"/>
-        <v>-3663.0000000000123</v>
-      </c>
-      <c r="P35" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000037</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="13"/>
-        <v>3.2999999999999181</v>
-      </c>
-      <c r="R35" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999997521E-2</v>
-      </c>
-      <c r="S35" s="3">
-        <f t="shared" si="15"/>
-        <v>1.6999999999999835</v>
+        <v>1.700000000000004</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>-93</v>
+        <v>19</v>
       </c>
       <c r="C36">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>18</v>
@@ -7308,53 +7420,54 @@
         <v>53.29</v>
       </c>
       <c r="H36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>35</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>-3352.1</v>
+        <v>567.9</v>
       </c>
       <c r="K36">
+        <f t="shared" si="17"/>
+        <v>0.9999999999999849</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="11"/>
+        <v>1.7999999999999996</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="12"/>
+        <v>33.999999999999552</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="13"/>
+        <v>0.99999999999998679</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="14"/>
+        <v>3.3999999999999968</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" si="15"/>
+        <v>9.9999999999999908E-2</v>
+      </c>
+      <c r="S36" s="3">
         <f t="shared" si="16"/>
-        <v>-110.99999999999986</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000092</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="10"/>
-        <v>1.8000000000000025</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="11"/>
-        <v>-3774.0000000000123</v>
-      </c>
-      <c r="P36" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000036</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="13"/>
-        <v>3.3999999999999191</v>
-      </c>
-      <c r="R36" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999997619E-2</v>
-      </c>
-      <c r="S36" s="3">
-        <f t="shared" si="15"/>
-        <v>1.799999999999943</v>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>-94</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>17</v>
@@ -7367,53 +7480,54 @@
         <v>54.99</v>
       </c>
       <c r="H37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>36</v>
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
-        <v>-3446.1</v>
+        <v>585.9</v>
       </c>
       <c r="K37">
+        <f t="shared" si="17"/>
+        <v>0.99999999999993994</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999617E-2</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="11"/>
+        <v>1.6999999999999995</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="12"/>
+        <v>34.999999999999496</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="13"/>
+        <v>0.99999999999998557</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="14"/>
+        <v>3.4999999999999964</v>
+      </c>
+      <c r="R37" s="2">
+        <f t="shared" si="15"/>
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="S37" s="3">
         <f t="shared" si="16"/>
-        <v>-111.00000000000006</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999659E-2</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="10"/>
-        <v>1.7</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="11"/>
-        <v>-3885.0000000000123</v>
-      </c>
-      <c r="P37" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000036</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="13"/>
-        <v>3.4999999999999187</v>
-      </c>
-      <c r="R37" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999997674E-2</v>
-      </c>
-      <c r="S37" s="3">
-        <f t="shared" si="15"/>
-        <v>1.6999999999999662</v>
+        <v>1.7000000000000042</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>-92</v>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>19</v>
@@ -7426,53 +7540,54 @@
         <v>56.89</v>
       </c>
       <c r="H38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>37</v>
       </c>
       <c r="I38">
         <f t="shared" si="2"/>
-        <v>-3538.1</v>
+        <v>605.9</v>
       </c>
       <c r="K38">
+        <f t="shared" si="17"/>
+        <v>0.9999999999999859</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999908E-2</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="11"/>
+        <v>1.8999999999999997</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="12"/>
+        <v>35.999999999999481</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="13"/>
+        <v>0.99999999999998557</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="14"/>
+        <v>3.5999999999999965</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" si="15"/>
+        <v>9.9999999999999908E-2</v>
+      </c>
+      <c r="S38" s="3">
         <f t="shared" si="16"/>
-        <v>-110.99999999999986</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000095</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="10"/>
-        <v>1.9000000000000039</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="11"/>
-        <v>-3996.0000000000123</v>
-      </c>
-      <c r="P38" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000034</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="13"/>
-        <v>3.5999999999999197</v>
-      </c>
-      <c r="R38" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999997771E-2</v>
-      </c>
-      <c r="S38" s="3">
-        <f t="shared" si="15"/>
-        <v>1.8999999999999435</v>
+        <v>1.8999999999999997</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>-94</v>
+        <v>18</v>
       </c>
       <c r="C39">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>17</v>
@@ -7485,53 +7600,54 @@
         <v>58.59</v>
       </c>
       <c r="H39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>38</v>
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
-        <v>-3632.1</v>
+        <v>623.9</v>
       </c>
       <c r="K39">
+        <f t="shared" si="17"/>
+        <v>1.0000000000000164</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="11"/>
+        <v>1.7</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="12"/>
+        <v>36.999999999999496</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="13"/>
+        <v>0.99999999999998634</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="14"/>
+        <v>3.6999999999999966</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="15"/>
+        <v>9.9999999999999908E-2</v>
+      </c>
+      <c r="S39" s="3">
         <f t="shared" si="16"/>
-        <v>-111.00000000000016</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="4"/>
-        <v>9.9999999999998909E-2</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="10"/>
-        <v>1.6999999999999971</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="11"/>
-        <v>-4107.0000000000127</v>
-      </c>
-      <c r="P39" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000034</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="13"/>
-        <v>3.6999999999999185</v>
-      </c>
-      <c r="R39" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999997799E-2</v>
-      </c>
-      <c r="S39" s="3">
-        <f t="shared" si="15"/>
-        <v>1.6999999999999782</v>
+        <v>1.6999999999999966</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>-95</v>
+        <v>17</v>
       </c>
       <c r="C40">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>16</v>
@@ -7544,53 +7660,54 @@
         <v>60.190000000000005</v>
       </c>
       <c r="H40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>39</v>
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
-        <v>-3727.1</v>
+        <v>640.9</v>
       </c>
       <c r="K40">
+        <f t="shared" si="17"/>
+        <v>1.0000000000001483</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000098</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="11"/>
+        <v>1.6000000000000008</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="12"/>
+        <v>37.999999999999645</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="13"/>
+        <v>0.99999999999999067</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="14"/>
+        <v>3.7999999999999976</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" si="15"/>
+        <v>9.9999999999999936E-2</v>
+      </c>
+      <c r="S40" s="3">
         <f t="shared" si="16"/>
-        <v>-110.99999999999976</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="4"/>
-        <v>0.1000000000000015</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="10"/>
-        <v>1.5999999999999999</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="11"/>
-        <v>-4218.0000000000127</v>
-      </c>
-      <c r="P40" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000034</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="13"/>
-        <v>3.7999999999999199</v>
-      </c>
-      <c r="R40" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999997896E-2</v>
-      </c>
-      <c r="S40" s="3">
-        <f t="shared" si="15"/>
-        <v>1.5999999999999421</v>
+        <v>1.5999999999999841</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>-96</v>
+        <v>16</v>
       </c>
       <c r="C41">
-        <v>-111</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>15</v>
@@ -7603,44 +7720,44 @@
         <v>61.690000000000005</v>
       </c>
       <c r="H41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
-        <v>-3823.1</v>
+        <v>656.9</v>
       </c>
       <c r="K41">
+        <f t="shared" si="17"/>
+        <v>1.000000000000099</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000066</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="12"/>
+        <v>38.999999999999744</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" si="13"/>
+        <v>0.99999999999999345</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="14"/>
+        <v>3.8999999999999981</v>
+      </c>
+      <c r="R41" s="2">
+        <f t="shared" si="15"/>
+        <v>9.999999999999995E-2</v>
+      </c>
+      <c r="S41" s="3">
         <f t="shared" si="16"/>
-        <v>-110.9999999999999</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000059</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="10"/>
-        <v>1.4999999999999989</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="11"/>
-        <v>-4329.0000000000127</v>
-      </c>
-      <c r="P41" s="2">
-        <f t="shared" si="12"/>
-        <v>-111.00000000000033</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="13"/>
-        <v>3.8999999999999204</v>
-      </c>
-      <c r="R41" s="2">
-        <f t="shared" si="14"/>
-        <v>9.9999999999997966E-2</v>
-      </c>
-      <c r="S41" s="3">
-        <f t="shared" si="15"/>
-        <v>1.4999999999999596</v>
+        <v>1.4999999999999893</v>
       </c>
     </row>
   </sheetData>
